--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -22,9 +22,12 @@
     <sheet name="processed" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="ready_25978" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="ready_28582" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="processed1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ready_259781" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="ready_285821" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="Crops">[1]Units!$A$2:$A$34</definedName>
@@ -2066,6 +2069,783 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ready_259781</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ready_285821</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultRowHeight="25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="10" width="24.1640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="10" width="24.5"/>
+    <col customWidth="1" max="16384" min="3" style="10" width="10.83203125"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="25" r="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="2" s="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>dpollard@ecotrust.org</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="3" s="2">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>25978</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="4" s="2">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="5" s="2">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>CRPType</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="6" s="2">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>GEOM</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Polygon((-1575773.82987 270588.290829,-1576104.82596 270623.520321,-1576269.41581 270662.71954,-1576459.34745 270740.737118,-1576847.20878 270844.814266,-1576659.70878 271556.508602,-1575994.7576 271381.327938,-1576000.58768 271233.950008,-1575912.52128 271230.46368,-1575738.17557 271322.71954,-1575669.41581 271221.308407,-1575728.24393 271172.71954,-1575848.12675 271116.147274,-1575851.81815 271022.763485,-1575734.60135 270914.159969,-1575726.98417 270721.928524,-1575773.82987 270588.290829,-1575803.82987 270738.290829,-1575824.36698 270810.112118,-1575877.15995 270759.252743,-1575803.82987 270738.290829))</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="7" s="2">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>SRID</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="8" s="2">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>AREA</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="9" s="2">
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>pre_80</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>Irrigation (Pre 1980s)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="10" s="2">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>yr80_2000</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>Irrigated: Annual Crops in Rotation</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="11" s="2">
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>till80_200</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>Intensive Tillage</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="12" s="2">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>crop_scenario_name</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>Todo_polygon_id25978Todo_scenario_id</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="13" s="2">
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="14" s="2">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>CROP_NUMBER</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="15" s="2">
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>Ccop_name</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Spring Wheat</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="16" s="2">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>planting_date</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="17" s="2">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>continue_from_previous_year</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="18" s="2">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>harvest_date</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="19" s="2">
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>grain</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="20" s="2">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="21" s="2">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>straw_stover_hay_removal</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="22" s="2">
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>tillage_date</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="23" s="2">
+      <c r="A23" s="10" t="inlineStr">
+        <is>
+          <t>tillage_type</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="24" s="2">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>n_application_date</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="25" s="2">
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>n_application_type</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="26" s="2">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>n_application_amount</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="27" s="2">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>n_application_method</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="28" s="2">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>eep</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="29" s="2">
+      <c r="A29" s="10" t="inlineStr">
+        <is>
+          <t>did_you_burn_residue</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultRowHeight="25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="10" width="24.1640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="10" width="24.5"/>
+    <col customWidth="1" max="16384" min="3" style="10" width="10.83203125"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="25" r="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="2" s="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>dpollard@ecotrust.org</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="3" s="2">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>28582</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="4" s="2">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="5" s="2">
+      <c r="A5" s="10" t="inlineStr">
+        <is>
+          <t>CRPType</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="6" s="2">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>GEOM</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Polygon((-1582013.82987 267048.290829,-1582003.54667 267084.867977,-1581977.26737 267058.559383,-1582013.82987 267048.290829,-1582013.82987 267048.290829,-1582054.96268 266837.631649,-1582190.31425 266382.460751,-1582454.60135 266434.067196,-1582717.92167 266524.184383,-1584455.22635 267032.514462,-1584563.21464 267067.568173,-1584333.61503 267934.067196,-1584127.5701 268664.584774,-1583705.22635 268504.741024,-1583482.98026 268500.214657,-1583238.99589 268559.687313,-1583108.5369 268622.99786,-1583003.71268 268676.992001,-1582716.25175 268775.385555,-1582508.82987 268771.152157,-1582273.63456 268775.942196,-1582091.55448 268656.572079,-1581979.17167 268490.795712,-1581912.16971 267572.441219,-1581907.98026 267367.099423,-1581939.09354 267271.283993,-1581999.12284 267213.583798,-1582028.5369 267152.99786,-1582059.73807 267092.397274,-1582013.82987 267048.290829))</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="7" s="2">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>SRID</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="8" s="2">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>AREA</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="9" s="2">
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>pre_80</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>Irrigation (Pre 1980s)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="10" s="2">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>yr80_2000</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>Irrigated: Annual Crops in Rotation</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="11" s="2">
+      <c r="A11" s="10" t="inlineStr">
+        <is>
+          <t>till80_200</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>Intensive Tillage</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="12" s="2">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>crop_scenario_name</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>Todo_polygon_id28582Todo_scenario_id</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="13" s="2">
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>YEAR</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="14" s="2">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>CROP_NUMBER</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>"1"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="15" s="2">
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>Ccop_name</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Winter Wheat</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="16" s="2">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>planting_date</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="17" s="2">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>continue_from_previous_year</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="18" s="2">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>harvest_date</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="19" s="2">
+      <c r="A19" s="10" t="inlineStr">
+        <is>
+          <t>grain</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="20" s="2">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="B20" s="12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="21" s="2">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>straw_stover_hay_removal</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="22" s="2">
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>tillage_date</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="23" s="2">
+      <c r="A23" s="10" t="inlineStr">
+        <is>
+          <t>tillage_type</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="24" s="2">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>n_application_date</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
+        <is>
+          <t>"01/01/1999"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="25" s="2">
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>n_application_type</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="26" s="2">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>n_application_amount</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="27" s="2">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>n_application_method</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="28" s="2">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>eep</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="29" s="2">
+      <c r="A29" s="10" t="inlineStr">
+        <is>
+          <t>did_you_burn_residue</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -23,7 +23,7 @@
     <sheet name="tillage" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="CRP" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="processed" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ready_766764" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="ready_1528146" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId19"/>
@@ -871,8 +871,8 @@
   </sheetPr>
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A34" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultRowHeight="25" outlineLevelRow="1"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B38" s="26" t="inlineStr">
         <is>
-          <t>no till</t>
+          <t>barley - no till</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,11 @@
           <t>future_scenario_b</t>
         </is>
       </c>
-      <c r="B51" s="30" t="n"/>
+      <c r="B51" s="30" t="inlineStr">
+        <is>
+          <t>alfalfa - no till</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="52" s="12">
       <c r="A52" s="19" t="n"/>
@@ -4650,7 +4654,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ready_766764</t>
+          <t>ready_1528146</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4769,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>71_9</t>
+          <t>71_21999</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4781,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>"1"</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4793,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>766764</t>
+          <t>1528146</t>
         </is>
       </c>
     </row>
@@ -4801,7 +4805,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POLYGON ((-120.755269964 45.460690123,-120.754894967 45.4607589766,-120.754796413 45.4605003269,-120.754421416 45.4605691789,-120.75367142 45.4607068792,-120.753572872 45.4604482283,-120.752447877 45.4606547684,-120.752349335 45.4603961162,-120.751666509 45.4605214715,-120.751704814 45.4601878561,-120.751724763 45.4601737752,-120.751765164 45.4598219026,-120.751785112 45.4598078209,-120.751805565 45.4595825158,-120.751825514 45.4595684338,-120.751865914 45.4592165617,-120.751885863 45.4592024797,-120.751946381 45.4587379546,-120.751966497 45.4587238729,-120.751867759 45.4574144524,-120.751968509 45.4567670342,-120.751949565 45.4557955717,-120.752057755 45.4557450229,-120.752549156 45.4556548031,-120.752500605 45.4555273491,-120.752670074 45.4554440347,-120.752810219 45.455373794,-120.752951978 45.4553041018,-120.753200559 45.4552584611,-120.753175622 45.4551929976,-120.753370633 45.4550924977,-120.753630808 45.4549659302,-120.753996594 45.4551798369,-120.754194072 45.4552882986,-120.754388867 45.4553996105,-120.754581818 45.4555149458,-120.754746942 45.4556487209,-120.75490754 45.4557890335,-120.755067969 45.4559296823,-120.755228734 45.4560699952,-120.755388996 45.4562106436,-120.755549761 45.4563509564,-120.755712034 45.4564884194,-120.755937172 45.4565708972,-120.756157449 45.4566620926,-120.756374037 45.4567569758,-120.756611747 45.4568208457,-120.756856668 45.4568577262,-120.757103431 45.4568936006,-120.757355055 45.4569224344,-120.757600142 45.4569606558,-120.757844727 45.4569993806,-120.758088974 45.4570384401,-120.758333392 45.4570776676,-120.758576801 45.4571212531,-120.758728515 45.4571312409,-120.758784187 45.4572773351,-120.758409215 45.4573461992,-120.758704903 45.458122137,-120.758329925 45.4581910011,-120.758724186 45.4592255845,-120.758349202 45.459294449,-120.758743477 45.4603290319,-120.757243504 45.4606044841,-120.75714494 45.460345837,-120.755269964 45.460690123))</t>
+          <t>POLYGON ((-117.883261484 45.2784270998,-117.883190052 45.2784001221,-117.883104725 45.278360391,-117.883032809 45.2783079208,-117.882910768 45.2781883944,-117.882855783 45.2781263689,-117.882564427 45.2777361068,-117.882454625 45.2774524634,-117.882431826 45.277383564,-117.882419588 45.2773138267,-117.88242797 45.2772409044,-117.882470048 45.2770218016,-117.882516651 45.2768791411,-117.882577503 45.2767383257,-117.882663838 45.2766062268,-117.882785375 45.2764037201,-117.882833989 45.2763388437,-117.883054266 45.2760890631,-117.883250402 45.2761147118,-117.883543601 45.2761872989,-117.8837446 45.2762221673,-117.884154139 45.2762655862,-117.884359664 45.2762788296,-117.884462426 45.2762779912,-117.884565524 45.2762709503,-117.884872637 45.2762404406,-117.885067766 45.27619149,-117.885569676 45.276099792,-117.885668414 45.2760785017,-117.88585047 45.2760099377,-117.886042414 45.2759546171,-117.8863103 45.2758466582,-117.886590256 45.2757534521,-117.886955875 45.2756158211,-117.887037347 45.2755713963,-117.887268483 45.2754259225,-117.88732075 45.2755875289,-117.887697049 45.2755281462,-117.887781638 45.275789684,-117.888534237 45.2756709143,-117.888449645 45.2754093772,-117.888825942 45.2753499908,-117.888910536 45.2756115276,-117.889286834 45.2755521397,-117.88937143 45.2758136761,-117.889747729 45.2757542866,-117.889916929 45.2762773583,-117.890669531 45.2761585743,-117.890838741 45.2766816442,-117.890462437 45.2767410375,-117.890800863 45.2777871775,-117.890424552 45.277846571,-117.890593768 45.2783696411,-117.887959548 45.2787853657,-117.887874951 45.2785238283,-117.886745994 45.2787019767,-117.886661403 45.2784404381,-117.885908765 45.2785591969,-117.885824177 45.2782976575,-117.8843189 45.278535159,-117.88423432 45.2782736182,-117.883261484 45.2784270998))</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4817,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>63.304901123</t>
+          <t>43.9892997742</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4841,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>71_9</t>
+          <t>71_21999</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4956,7 @@
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>03/20/2000</t>
+          <t>04/12/2000</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
@@ -4962,7 +4966,7 @@
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>03/20/2000</t>
+          <t>04/12/2000</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -4983,7 +4987,7 @@
       </c>
       <c r="K17" s="7" t="inlineStr">
         <is>
-          <t>03/16/2000</t>
+          <t>04/08/2000</t>
         </is>
       </c>
       <c r="L17" s="7" t="inlineStr">
@@ -4993,7 +4997,7 @@
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>03/20/2000</t>
+          <t>04/12/2000</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
@@ -5027,7 +5031,7 @@
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>03/20/2001</t>
+          <t>04/12/2001</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
@@ -5037,7 +5041,7 @@
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>03/20/2001</t>
+          <t>04/12/2001</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -5058,7 +5062,7 @@
       </c>
       <c r="K18" s="7" t="inlineStr">
         <is>
-          <t>03/16/2001</t>
+          <t>04/08/2001</t>
         </is>
       </c>
       <c r="L18" s="7" t="inlineStr">
@@ -5068,7 +5072,7 @@
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>03/20/2001</t>
+          <t>04/12/2001</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
@@ -5102,7 +5106,7 @@
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>03/20/2002</t>
+          <t>04/12/2002</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
@@ -5112,7 +5116,7 @@
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>03/20/2002</t>
+          <t>04/12/2002</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -5133,7 +5137,7 @@
       </c>
       <c r="K19" s="7" t="inlineStr">
         <is>
-          <t>03/16/2002</t>
+          <t>04/08/2002</t>
         </is>
       </c>
       <c r="L19" s="7" t="inlineStr">
@@ -5143,7 +5147,7 @@
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>03/20/2002</t>
+          <t>04/12/2002</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
@@ -5177,7 +5181,7 @@
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>03/20/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
@@ -5187,7 +5191,7 @@
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>03/20/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -5208,7 +5212,7 @@
       </c>
       <c r="K20" s="7" t="inlineStr">
         <is>
-          <t>03/16/2003</t>
+          <t>04/08/2003</t>
         </is>
       </c>
       <c r="L20" s="7" t="inlineStr">
@@ -5218,7 +5222,7 @@
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>03/20/2003</t>
+          <t>04/12/2003</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
@@ -5252,7 +5256,7 @@
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>03/20/2004</t>
+          <t>04/12/2004</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
@@ -5262,7 +5266,7 @@
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>03/20/2004</t>
+          <t>04/12/2004</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -5283,7 +5287,7 @@
       </c>
       <c r="K21" s="7" t="inlineStr">
         <is>
-          <t>03/16/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="L21" s="7" t="inlineStr">
@@ -5293,7 +5297,7 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>03/20/2004</t>
+          <t>04/12/2004</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
@@ -5327,7 +5331,7 @@
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>03/20/2005</t>
+          <t>04/12/2005</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
@@ -5337,7 +5341,7 @@
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>03/20/2005</t>
+          <t>04/12/2005</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -5358,7 +5362,7 @@
       </c>
       <c r="K22" s="7" t="inlineStr">
         <is>
-          <t>03/16/2005</t>
+          <t>04/08/2005</t>
         </is>
       </c>
       <c r="L22" s="7" t="inlineStr">
@@ -5368,7 +5372,7 @@
       </c>
       <c r="M22" s="7" t="inlineStr">
         <is>
-          <t>03/20/2005</t>
+          <t>04/12/2005</t>
         </is>
       </c>
       <c r="N22" s="7" t="n">
@@ -5402,7 +5406,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>03/20/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
@@ -5412,7 +5416,7 @@
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>03/20/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -5433,7 +5437,7 @@
       </c>
       <c r="K23" s="7" t="inlineStr">
         <is>
-          <t>03/16/2006</t>
+          <t>04/08/2006</t>
         </is>
       </c>
       <c r="L23" s="7" t="inlineStr">
@@ -5443,7 +5447,7 @@
       </c>
       <c r="M23" s="7" t="inlineStr">
         <is>
-          <t>03/20/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="N23" s="7" t="n">
@@ -5477,7 +5481,7 @@
       </c>
       <c r="D24" s="7" t="inlineStr">
         <is>
-          <t>03/20/2007</t>
+          <t>04/12/2007</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
@@ -5487,7 +5491,7 @@
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>03/20/2007</t>
+          <t>04/12/2007</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -5508,7 +5512,7 @@
       </c>
       <c r="K24" s="7" t="inlineStr">
         <is>
-          <t>03/16/2007</t>
+          <t>04/08/2007</t>
         </is>
       </c>
       <c r="L24" s="7" t="inlineStr">
@@ -5518,7 +5522,7 @@
       </c>
       <c r="M24" s="7" t="inlineStr">
         <is>
-          <t>03/20/2007</t>
+          <t>04/12/2007</t>
         </is>
       </c>
       <c r="N24" s="7" t="n">
@@ -5552,7 +5556,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>03/20/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
@@ -5562,7 +5566,7 @@
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>03/20/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -5583,7 +5587,7 @@
       </c>
       <c r="K25" s="7" t="inlineStr">
         <is>
-          <t>03/16/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="L25" s="7" t="inlineStr">
@@ -5593,7 +5597,7 @@
       </c>
       <c r="M25" s="7" t="inlineStr">
         <is>
-          <t>03/20/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="N25" s="7" t="n">
@@ -5627,7 +5631,7 @@
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>03/20/2009</t>
+          <t>04/12/2009</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
@@ -5637,7 +5641,7 @@
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>03/20/2009</t>
+          <t>04/12/2009</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -5658,7 +5662,7 @@
       </c>
       <c r="K26" s="7" t="inlineStr">
         <is>
-          <t>03/16/2009</t>
+          <t>04/08/2009</t>
         </is>
       </c>
       <c r="L26" s="7" t="inlineStr">
@@ -5668,7 +5672,7 @@
       </c>
       <c r="M26" s="7" t="inlineStr">
         <is>
-          <t>03/20/2009</t>
+          <t>04/12/2009</t>
         </is>
       </c>
       <c r="N26" s="7" t="n">
@@ -5702,7 +5706,7 @@
       </c>
       <c r="D27" s="7" t="inlineStr">
         <is>
-          <t>03/20/2010</t>
+          <t>04/12/2010</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
@@ -5712,7 +5716,7 @@
       </c>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>03/20/2010</t>
+          <t>04/12/2010</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -5733,7 +5737,7 @@
       </c>
       <c r="K27" s="7" t="inlineStr">
         <is>
-          <t>03/16/2010</t>
+          <t>04/08/2010</t>
         </is>
       </c>
       <c r="L27" s="7" t="inlineStr">
@@ -5743,7 +5747,7 @@
       </c>
       <c r="M27" s="7" t="inlineStr">
         <is>
-          <t>03/20/2010</t>
+          <t>04/12/2010</t>
         </is>
       </c>
       <c r="N27" s="7" t="n">
@@ -5777,7 +5781,7 @@
       </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
-          <t>03/20/2011</t>
+          <t>04/12/2011</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
@@ -5787,7 +5791,7 @@
       </c>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>03/20/2011</t>
+          <t>04/12/2011</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -5808,7 +5812,7 @@
       </c>
       <c r="K28" s="7" t="inlineStr">
         <is>
-          <t>03/16/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="L28" s="7" t="inlineStr">
@@ -5818,7 +5822,7 @@
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>03/20/2011</t>
+          <t>04/12/2011</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
@@ -5852,7 +5856,7 @@
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t>03/20/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
@@ -5862,7 +5866,7 @@
       </c>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>03/20/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -5883,7 +5887,7 @@
       </c>
       <c r="K29" s="7" t="inlineStr">
         <is>
-          <t>03/16/2012</t>
+          <t>04/08/2012</t>
         </is>
       </c>
       <c r="L29" s="7" t="inlineStr">
@@ -5893,7 +5897,7 @@
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>03/20/2012</t>
+          <t>04/12/2012</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
@@ -5927,7 +5931,7 @@
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>03/20/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
@@ -5937,7 +5941,7 @@
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>03/20/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -5958,7 +5962,7 @@
       </c>
       <c r="K30" s="7" t="inlineStr">
         <is>
-          <t>03/16/2013</t>
+          <t>04/08/2013</t>
         </is>
       </c>
       <c r="L30" s="7" t="inlineStr">
@@ -5968,7 +5972,7 @@
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>03/20/2013</t>
+          <t>04/12/2013</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
@@ -6002,7 +6006,7 @@
       </c>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>03/20/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
@@ -6012,7 +6016,7 @@
       </c>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>03/20/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6033,7 +6037,7 @@
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
-          <t>03/16/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="L31" s="7" t="inlineStr">
@@ -6043,7 +6047,7 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>03/20/2014</t>
+          <t>04/12/2014</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
@@ -6077,7 +6081,7 @@
       </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>03/20/2015</t>
+          <t>04/12/2015</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
@@ -6087,7 +6091,7 @@
       </c>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>03/20/2015</t>
+          <t>04/12/2015</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6108,7 +6112,7 @@
       </c>
       <c r="K32" s="7" t="inlineStr">
         <is>
-          <t>03/16/2015</t>
+          <t>04/08/2015</t>
         </is>
       </c>
       <c r="L32" s="7" t="inlineStr">
@@ -6118,7 +6122,7 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>03/20/2015</t>
+          <t>04/12/2015</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
@@ -6152,7 +6156,7 @@
       </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
-          <t>03/20/2016</t>
+          <t>04/12/2016</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
@@ -6162,7 +6166,7 @@
       </c>
       <c r="F33" s="7" t="inlineStr">
         <is>
-          <t>03/20/2016</t>
+          <t>04/12/2016</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -6183,7 +6187,7 @@
       </c>
       <c r="K33" s="7" t="inlineStr">
         <is>
-          <t>03/16/2016</t>
+          <t>04/08/2016</t>
         </is>
       </c>
       <c r="L33" s="7" t="inlineStr">
@@ -6193,7 +6197,7 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>03/20/2016</t>
+          <t>04/12/2016</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
@@ -6227,7 +6231,7 @@
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>03/20/2017</t>
+          <t>04/12/2017</t>
         </is>
       </c>
       <c r="E34" s="10" t="inlineStr">
@@ -6237,7 +6241,7 @@
       </c>
       <c r="F34" s="7" t="inlineStr">
         <is>
-          <t>03/20/2017</t>
+          <t>04/12/2017</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -6258,7 +6262,7 @@
       </c>
       <c r="K34" s="7" t="inlineStr">
         <is>
-          <t>03/16/2017</t>
+          <t>04/08/2017</t>
         </is>
       </c>
       <c r="L34" s="7" t="inlineStr">
@@ -6268,7 +6272,7 @@
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>03/20/2017</t>
+          <t>04/12/2017</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
@@ -6302,7 +6306,7 @@
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>03/20/2018</t>
+          <t>04/12/2018</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr">
@@ -6312,7 +6316,7 @@
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>03/20/2018</t>
+          <t>04/12/2018</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -6333,7 +6337,7 @@
       </c>
       <c r="K35" s="7" t="inlineStr">
         <is>
-          <t>03/16/2018</t>
+          <t>04/08/2018</t>
         </is>
       </c>
       <c r="L35" s="7" t="inlineStr">
@@ -6343,7 +6347,7 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>03/20/2018</t>
+          <t>04/12/2018</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
@@ -6377,7 +6381,7 @@
       </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
-          <t>03/20/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="E36" s="10" t="inlineStr">
@@ -6387,7 +6391,7 @@
       </c>
       <c r="F36" s="7" t="inlineStr">
         <is>
-          <t>03/20/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -6408,7 +6412,7 @@
       </c>
       <c r="K36" s="7" t="inlineStr">
         <is>
-          <t>03/16/2019</t>
+          <t>04/08/2019</t>
         </is>
       </c>
       <c r="L36" s="7" t="inlineStr">
@@ -6418,7 +6422,7 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>03/20/2019</t>
+          <t>04/12/2019</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
@@ -6465,7 +6469,7 @@
       </c>
       <c r="B38" s="26" t="inlineStr">
         <is>
-          <t>no till</t>
+          <t>barley - no till</t>
         </is>
       </c>
     </row>
@@ -7288,7 +7292,11 @@
           <t>future_scenario_b</t>
         </is>
       </c>
-      <c r="B51" s="30" t="n"/>
+      <c r="B51" s="30" t="inlineStr">
+        <is>
+          <t>alfalfa - no till</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="52" s="12">
       <c r="A52" s="19" t="n"/>
@@ -7380,7 +7388,7 @@
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D53" s="7" t="inlineStr">
@@ -7453,7 +7461,7 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D54" s="7" t="inlineStr">
@@ -7526,7 +7534,7 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D55" s="7" t="inlineStr">
@@ -7599,7 +7607,7 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -7672,7 +7680,7 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D57" s="7" t="inlineStr">
@@ -7745,7 +7753,7 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D58" s="7" t="inlineStr">
@@ -7818,7 +7826,7 @@
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D59" s="7" t="inlineStr">
@@ -7891,7 +7899,7 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D60" s="7" t="inlineStr">
@@ -7964,7 +7972,7 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D61" s="7" t="inlineStr">
@@ -8037,7 +8045,7 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Alfalfa</t>
         </is>
       </c>
       <c r="D62" s="7" t="inlineStr">

--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -871,8 +871,8 @@
   </sheetPr>
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A44" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultRowHeight="25" outlineLevelRow="1"/>
@@ -3427,11 +3427,7 @@
           <t>future_scenario_b</t>
         </is>
       </c>
-      <c r="B51" s="30" t="inlineStr">
-        <is>
-          <t>alfalfa - no till</t>
-        </is>
-      </c>
+      <c r="B51" s="30" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="52" s="12">
       <c r="A52" s="19" t="n"/>
@@ -4721,7 +4717,7 @@
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>Non-Irrigated: Continuous Hay</t>
+          <t>Irrigated: Annual Crops in Rotation</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4952,7 @@
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>04/12/2000</t>
+          <t>"01/01/2000"</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
@@ -4966,16 +4962,14 @@
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>04/12/2000</t>
+          <t>"10/01/2000"</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>60</v>
       </c>
-      <c r="H17" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H17" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I17" s="7" t="n">
         <v>0</v>
@@ -4987,7 +4981,7 @@
       </c>
       <c r="K17" s="7" t="inlineStr">
         <is>
-          <t>04/08/2000</t>
+          <t>"05/01/2000"</t>
         </is>
       </c>
       <c r="L17" s="7" t="inlineStr">
@@ -4997,7 +4991,7 @@
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>04/12/2000</t>
+          <t>"05/09/2000"</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
@@ -5031,7 +5025,7 @@
       </c>
       <c r="D18" s="7" t="inlineStr">
         <is>
-          <t>04/12/2001</t>
+          <t>"01/01/2001"</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
@@ -5041,16 +5035,14 @@
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>04/12/2001</t>
+          <t>"10/01/2001"</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>45</v>
       </c>
-      <c r="H18" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H18" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I18" s="7" t="n">
         <v>0</v>
@@ -5062,7 +5054,7 @@
       </c>
       <c r="K18" s="7" t="inlineStr">
         <is>
-          <t>04/08/2001</t>
+          <t>"05/01/2001"</t>
         </is>
       </c>
       <c r="L18" s="7" t="inlineStr">
@@ -5072,7 +5064,7 @@
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>04/12/2001</t>
+          <t>"05/09/2001"</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
@@ -5106,7 +5098,7 @@
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>04/12/2002</t>
+          <t>"01/01/2002"</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
@@ -5116,16 +5108,14 @@
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>04/12/2002</t>
+          <t>"10/01/2002"</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>53</v>
       </c>
-      <c r="H19" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H19" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I19" s="7" t="n">
         <v>0</v>
@@ -5137,7 +5127,7 @@
       </c>
       <c r="K19" s="7" t="inlineStr">
         <is>
-          <t>04/08/2002</t>
+          <t>"05/01/2002"</t>
         </is>
       </c>
       <c r="L19" s="7" t="inlineStr">
@@ -5147,7 +5137,7 @@
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>04/12/2002</t>
+          <t>"05/09/2002"</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
@@ -5181,7 +5171,7 @@
       </c>
       <c r="D20" s="7" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>"01/01/2003"</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
@@ -5191,16 +5181,14 @@
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>"10/01/2003"</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>64</v>
       </c>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H20" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I20" s="7" t="n">
         <v>0</v>
@@ -5212,7 +5200,7 @@
       </c>
       <c r="K20" s="7" t="inlineStr">
         <is>
-          <t>04/08/2003</t>
+          <t>"05/01/2003"</t>
         </is>
       </c>
       <c r="L20" s="7" t="inlineStr">
@@ -5222,7 +5210,7 @@
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>04/12/2003</t>
+          <t>"05/09/2003"</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
@@ -5256,7 +5244,7 @@
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>04/12/2004</t>
+          <t>"01/01/2004"</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
@@ -5266,16 +5254,14 @@
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>04/12/2004</t>
+          <t>"10/01/2004"</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>73</v>
       </c>
-      <c r="H21" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H21" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I21" s="7" t="n">
         <v>0</v>
@@ -5287,7 +5273,7 @@
       </c>
       <c r="K21" s="7" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>"05/01/2004"</t>
         </is>
       </c>
       <c r="L21" s="7" t="inlineStr">
@@ -5297,7 +5283,7 @@
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>04/12/2004</t>
+          <t>"05/09/2004"</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
@@ -5331,7 +5317,7 @@
       </c>
       <c r="D22" s="7" t="inlineStr">
         <is>
-          <t>04/12/2005</t>
+          <t>"01/01/2005"</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
@@ -5341,16 +5327,14 @@
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>04/12/2005</t>
+          <t>"10/01/2005"</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>45</v>
       </c>
-      <c r="H22" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H22" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I22" s="7" t="n">
         <v>0</v>
@@ -5362,7 +5346,7 @@
       </c>
       <c r="K22" s="7" t="inlineStr">
         <is>
-          <t>04/08/2005</t>
+          <t>"05/01/2005"</t>
         </is>
       </c>
       <c r="L22" s="7" t="inlineStr">
@@ -5372,7 +5356,7 @@
       </c>
       <c r="M22" s="7" t="inlineStr">
         <is>
-          <t>04/12/2005</t>
+          <t>"05/09/2005"</t>
         </is>
       </c>
       <c r="N22" s="7" t="n">
@@ -5406,7 +5390,7 @@
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>"01/01/2006"</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
@@ -5416,16 +5400,14 @@
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>"10/01/2006"</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>58</v>
       </c>
-      <c r="H23" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H23" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I23" s="7" t="n">
         <v>0</v>
@@ -5437,7 +5419,7 @@
       </c>
       <c r="K23" s="7" t="inlineStr">
         <is>
-          <t>04/08/2006</t>
+          <t>"05/01/2006"</t>
         </is>
       </c>
       <c r="L23" s="7" t="inlineStr">
@@ -5447,7 +5429,7 @@
       </c>
       <c r="M23" s="7" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>"05/09/2006"</t>
         </is>
       </c>
       <c r="N23" s="7" t="n">
@@ -5481,7 +5463,7 @@
       </c>
       <c r="D24" s="7" t="inlineStr">
         <is>
-          <t>04/12/2007</t>
+          <t>"01/01/2007"</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
@@ -5491,16 +5473,14 @@
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>04/12/2007</t>
+          <t>"10/01/2007"</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>53</v>
       </c>
-      <c r="H24" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H24" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I24" s="7" t="n">
         <v>0</v>
@@ -5512,7 +5492,7 @@
       </c>
       <c r="K24" s="7" t="inlineStr">
         <is>
-          <t>04/08/2007</t>
+          <t>"05/01/2007"</t>
         </is>
       </c>
       <c r="L24" s="7" t="inlineStr">
@@ -5522,7 +5502,7 @@
       </c>
       <c r="M24" s="7" t="inlineStr">
         <is>
-          <t>04/12/2007</t>
+          <t>"05/09/2007"</t>
         </is>
       </c>
       <c r="N24" s="7" t="n">
@@ -5556,7 +5536,7 @@
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>"01/01/2008"</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
@@ -5566,16 +5546,14 @@
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>"10/01/2008"</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>50</v>
       </c>
-      <c r="H25" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H25" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I25" s="7" t="n">
         <v>0</v>
@@ -5587,7 +5565,7 @@
       </c>
       <c r="K25" s="7" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>"05/01/2008"</t>
         </is>
       </c>
       <c r="L25" s="7" t="inlineStr">
@@ -5597,7 +5575,7 @@
       </c>
       <c r="M25" s="7" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>"05/09/2008"</t>
         </is>
       </c>
       <c r="N25" s="7" t="n">
@@ -5631,7 +5609,7 @@
       </c>
       <c r="D26" s="7" t="inlineStr">
         <is>
-          <t>04/12/2009</t>
+          <t>"01/01/2009"</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
@@ -5641,16 +5619,14 @@
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>04/12/2009</t>
+          <t>"10/01/2009"</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>60</v>
       </c>
-      <c r="H26" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H26" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I26" s="7" t="n">
         <v>0</v>
@@ -5662,7 +5638,7 @@
       </c>
       <c r="K26" s="7" t="inlineStr">
         <is>
-          <t>04/08/2009</t>
+          <t>"05/01/2009"</t>
         </is>
       </c>
       <c r="L26" s="7" t="inlineStr">
@@ -5672,7 +5648,7 @@
       </c>
       <c r="M26" s="7" t="inlineStr">
         <is>
-          <t>04/12/2009</t>
+          <t>"05/09/2009"</t>
         </is>
       </c>
       <c r="N26" s="7" t="n">
@@ -5706,7 +5682,7 @@
       </c>
       <c r="D27" s="7" t="inlineStr">
         <is>
-          <t>04/12/2010</t>
+          <t>"01/01/2010"</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
@@ -5716,16 +5692,14 @@
       </c>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>04/12/2010</t>
+          <t>"10/01/2010"</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>74</v>
       </c>
-      <c r="H27" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H27" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I27" s="7" t="n">
         <v>0</v>
@@ -5737,7 +5711,7 @@
       </c>
       <c r="K27" s="7" t="inlineStr">
         <is>
-          <t>04/08/2010</t>
+          <t>"05/01/2010"</t>
         </is>
       </c>
       <c r="L27" s="7" t="inlineStr">
@@ -5747,7 +5721,7 @@
       </c>
       <c r="M27" s="7" t="inlineStr">
         <is>
-          <t>04/12/2010</t>
+          <t>"05/09/2010"</t>
         </is>
       </c>
       <c r="N27" s="7" t="n">
@@ -5781,7 +5755,7 @@
       </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
-          <t>04/12/2011</t>
+          <t>"01/01/2011"</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
@@ -5791,16 +5765,14 @@
       </c>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>04/12/2011</t>
+          <t>"10/01/2011"</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>75</v>
       </c>
-      <c r="H28" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H28" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I28" s="7" t="n">
         <v>0</v>
@@ -5812,7 +5784,7 @@
       </c>
       <c r="K28" s="7" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>"05/01/2011"</t>
         </is>
       </c>
       <c r="L28" s="7" t="inlineStr">
@@ -5822,7 +5794,7 @@
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>04/12/2011</t>
+          <t>"05/09/2011"</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
@@ -5856,7 +5828,7 @@
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>"01/01/2012"</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
@@ -5866,16 +5838,14 @@
       </c>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>"10/01/2012"</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>72</v>
       </c>
-      <c r="H29" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H29" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I29" s="7" t="n">
         <v>0</v>
@@ -5887,7 +5857,7 @@
       </c>
       <c r="K29" s="7" t="inlineStr">
         <is>
-          <t>04/08/2012</t>
+          <t>"05/01/2012"</t>
         </is>
       </c>
       <c r="L29" s="7" t="inlineStr">
@@ -5897,7 +5867,7 @@
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>04/12/2012</t>
+          <t>"05/09/2012"</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
@@ -5931,7 +5901,7 @@
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>"01/01/2013"</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
@@ -5941,16 +5911,14 @@
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>"10/01/2013"</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>70</v>
       </c>
-      <c r="H30" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H30" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I30" s="7" t="n">
         <v>0</v>
@@ -5962,7 +5930,7 @@
       </c>
       <c r="K30" s="7" t="inlineStr">
         <is>
-          <t>04/08/2013</t>
+          <t>"05/01/2013"</t>
         </is>
       </c>
       <c r="L30" s="7" t="inlineStr">
@@ -5972,7 +5940,7 @@
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>04/12/2013</t>
+          <t>"05/09/2013"</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
@@ -6006,7 +5974,7 @@
       </c>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>"01/01/2014"</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
@@ -6016,16 +5984,14 @@
       </c>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>"10/01/2014"</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>50</v>
       </c>
-      <c r="H31" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H31" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I31" s="7" t="n">
         <v>0</v>
@@ -6037,7 +6003,7 @@
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>"05/01/2014"</t>
         </is>
       </c>
       <c r="L31" s="7" t="inlineStr">
@@ -6047,7 +6013,7 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>04/12/2014</t>
+          <t>"05/09/2014"</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
@@ -6081,7 +6047,7 @@
       </c>
       <c r="D32" s="7" t="inlineStr">
         <is>
-          <t>04/12/2015</t>
+          <t>"01/01/2015"</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
@@ -6091,16 +6057,14 @@
       </c>
       <c r="F32" s="7" t="inlineStr">
         <is>
-          <t>04/12/2015</t>
+          <t>"10/01/2015"</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>52</v>
       </c>
-      <c r="H32" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H32" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I32" s="7" t="n">
         <v>0</v>
@@ -6112,7 +6076,7 @@
       </c>
       <c r="K32" s="7" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>"05/01/2015"</t>
         </is>
       </c>
       <c r="L32" s="7" t="inlineStr">
@@ -6122,7 +6086,7 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>04/12/2015</t>
+          <t>"05/09/2015"</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
@@ -6156,7 +6120,7 @@
       </c>
       <c r="D33" s="7" t="inlineStr">
         <is>
-          <t>04/12/2016</t>
+          <t>"01/01/2016"</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
@@ -6166,16 +6130,14 @@
       </c>
       <c r="F33" s="7" t="inlineStr">
         <is>
-          <t>04/12/2016</t>
+          <t>"10/01/2016"</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>67</v>
       </c>
-      <c r="H33" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H33" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I33" s="7" t="n">
         <v>0</v>
@@ -6187,7 +6149,7 @@
       </c>
       <c r="K33" s="7" t="inlineStr">
         <is>
-          <t>04/08/2016</t>
+          <t>"05/01/2016"</t>
         </is>
       </c>
       <c r="L33" s="7" t="inlineStr">
@@ -6197,7 +6159,7 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>04/12/2016</t>
+          <t>"05/09/2016"</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
@@ -6231,7 +6193,7 @@
       </c>
       <c r="D34" s="7" t="inlineStr">
         <is>
-          <t>04/12/2017</t>
+          <t>"01/01/2017"</t>
         </is>
       </c>
       <c r="E34" s="10" t="inlineStr">
@@ -6241,16 +6203,14 @@
       </c>
       <c r="F34" s="7" t="inlineStr">
         <is>
-          <t>04/12/2017</t>
+          <t>"10/01/2017"</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>62</v>
       </c>
-      <c r="H34" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H34" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I34" s="7" t="n">
         <v>0</v>
@@ -6262,7 +6222,7 @@
       </c>
       <c r="K34" s="7" t="inlineStr">
         <is>
-          <t>04/08/2017</t>
+          <t>"05/01/2017"</t>
         </is>
       </c>
       <c r="L34" s="7" t="inlineStr">
@@ -6272,7 +6232,7 @@
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>04/12/2017</t>
+          <t>"05/09/2017"</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
@@ -6306,7 +6266,7 @@
       </c>
       <c r="D35" s="7" t="inlineStr">
         <is>
-          <t>04/12/2018</t>
+          <t>"01/01/2018"</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr">
@@ -6316,16 +6276,14 @@
       </c>
       <c r="F35" s="7" t="inlineStr">
         <is>
-          <t>04/12/2018</t>
+          <t>"10/01/2018"</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>53</v>
       </c>
-      <c r="H35" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H35" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I35" s="7" t="n">
         <v>0</v>
@@ -6337,7 +6295,7 @@
       </c>
       <c r="K35" s="7" t="inlineStr">
         <is>
-          <t>04/08/2018</t>
+          <t>"05/01/2018"</t>
         </is>
       </c>
       <c r="L35" s="7" t="inlineStr">
@@ -6347,7 +6305,7 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>04/12/2018</t>
+          <t>"05/09/2018"</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
@@ -6381,7 +6339,7 @@
       </c>
       <c r="D36" s="7" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>"01/01/2019"</t>
         </is>
       </c>
       <c r="E36" s="10" t="inlineStr">
@@ -6391,16 +6349,14 @@
       </c>
       <c r="F36" s="7" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>"10/01/2019"</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>78</v>
       </c>
-      <c r="H36" s="10" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+      <c r="H36" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="I36" s="7" t="n">
         <v>0</v>
@@ -6412,7 +6368,7 @@
       </c>
       <c r="K36" s="7" t="inlineStr">
         <is>
-          <t>04/08/2019</t>
+          <t>"05/01/2019"</t>
         </is>
       </c>
       <c r="L36" s="7" t="inlineStr">
@@ -6422,7 +6378,7 @@
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>04/12/2019</t>
+          <t>"05/09/2019"</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
@@ -7292,11 +7248,7 @@
           <t>future_scenario_b</t>
         </is>
       </c>
-      <c r="B51" s="30" t="inlineStr">
-        <is>
-          <t>alfalfa - no till</t>
-        </is>
-      </c>
+      <c r="B51" s="30" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="52" s="12">
       <c r="A52" s="19" t="n"/>

--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -724,10 +724,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="I84" activeCellId="9" sqref="I66 I68 I70 I72 I74 I76 I78 I80 I82 I84"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="10.83203125" defaultRowHeight="25" outlineLevelRow="1"/>
@@ -735,14 +735,18 @@
     <col customWidth="1" max="1" min="1" style="17" width="18.33203125"/>
     <col customWidth="1" max="2" min="2" style="40" width="24.83203125"/>
     <col customWidth="1" max="3" min="3" style="40" width="21.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="40" width="12.33203125"/>
+    <col customWidth="1" max="4" min="4" style="40" width="12.33203125"/>
     <col customWidth="1" max="5" min="5" style="40" width="14.1640625"/>
     <col customWidth="1" max="6" min="6" style="40" width="15.1640625"/>
     <col customWidth="1" max="7" min="7" style="40" width="11.83203125"/>
     <col customWidth="1" max="8" min="8" style="40" width="11.5"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="40" width="11"/>
     <col customWidth="1" max="10" min="10" style="40" width="20.83203125"/>
-    <col customWidth="1" max="15" min="11" style="40" width="10.83203125"/>
+    <col customWidth="1" max="11" min="11" style="40" width="10.83203125"/>
+    <col customWidth="1" max="12" min="12" style="40" width="16.83203125"/>
+    <col customWidth="1" max="13" min="13" style="40" width="10.83203125"/>
+    <col customWidth="1" max="14" min="14" style="40" width="17.6640625"/>
+    <col customWidth="1" max="15" min="15" style="40" width="10.83203125"/>
     <col customWidth="1" max="16" min="16" style="40" width="21"/>
     <col customWidth="1" max="16384" min="17" style="40" width="10.83203125"/>
   </cols>
@@ -798,7 +802,7 @@
       </c>
       <c r="B5" s="32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1036,6 +1040,11 @@
       <c r="Q20" s="21" t="inlineStr">
         <is>
           <t>did_you_burn_residue</t>
+        </is>
+      </c>
+      <c r="R20" s="21" t="inlineStr">
+        <is>
+          <t>crop_number</t>
         </is>
       </c>
     </row>
@@ -1044,18 +1053,20 @@
       <c r="B21" s="40" t="n">
         <v>2000</v>
       </c>
-      <c r="C21" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C21" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D21" s="40" t="inlineStr">
         <is>
           <t>"01/01/2000"</t>
         </is>
       </c>
-      <c r="E21" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F21" s="40" t="inlineStr">
         <is>
@@ -1081,56 +1092,62 @@
           <t>"05/01/2000"</t>
         </is>
       </c>
-      <c r="L21" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L21" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M21" s="40" t="inlineStr">
         <is>
           <t>"05/09/2000"</t>
         </is>
       </c>
-      <c r="N21" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N21" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O21" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P21" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P21" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q21" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R21" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="22" s="34">
       <c r="A22" s="33" t="n"/>
-      <c r="B22" s="40">
-        <f>IF($B$4="None","",$B$21)</f>
-        <v/>
-      </c>
-      <c r="C22" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D22" s="38">
-        <f>(D21)</f>
-        <v/>
+      <c r="B22" s="40" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D22" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2000"</t>
+        </is>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F22" s="41">
-        <f>(F21)</f>
-        <v/>
+      <c r="F22" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2000"</t>
+        </is>
       </c>
       <c r="G22" s="36" t="n">
         <v>0</v>
@@ -1149,24 +1166,29 @@
       <c r="O22" s="34" t="n"/>
       <c r="P22" s="34" t="n"/>
       <c r="Q22" s="35" t="n"/>
+      <c r="R22" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="23" s="2">
       <c r="A23" s="15" t="n"/>
       <c r="B23" s="40" t="n">
         <v>2001</v>
       </c>
-      <c r="C23" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C23" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D23" s="40" t="inlineStr">
         <is>
           <t>"01/01/2001"</t>
         </is>
       </c>
-      <c r="E23" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F23" s="40" t="inlineStr">
         <is>
@@ -1176,72 +1198,80 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H23" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I23" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J23" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K23" s="40" t="inlineStr">
         <is>
           <t>"05/01/2001"</t>
         </is>
       </c>
-      <c r="L23" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L23" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M23" s="40" t="inlineStr">
         <is>
           <t>"05/09/2001"</t>
         </is>
       </c>
-      <c r="N23" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N23" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O23" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P23" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P23" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q23" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R23" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="24" s="34">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="40">
-        <f>IF($B$4="None","",$B$23)</f>
-        <v/>
-      </c>
-      <c r="C24" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D24" s="38">
-        <f>(D23)</f>
-        <v/>
+      <c r="B24" s="40" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D24" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2001"</t>
+        </is>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F24" s="41">
-        <f>(F23)</f>
-        <v/>
+      <c r="F24" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2001"</t>
+        </is>
       </c>
       <c r="G24" s="36" t="n">
         <v>0</v>
@@ -1260,24 +1290,29 @@
       <c r="O24" s="34" t="n"/>
       <c r="P24" s="34" t="n"/>
       <c r="Q24" s="35" t="n"/>
+      <c r="R24" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="25" s="2">
       <c r="A25" s="15" t="n"/>
       <c r="B25" s="40" t="n">
         <v>2002</v>
       </c>
-      <c r="C25" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C25" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D25" s="40" t="inlineStr">
         <is>
           <t>"01/01/2002"</t>
         </is>
       </c>
-      <c r="E25" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F25" s="40" t="inlineStr">
         <is>
@@ -1303,56 +1338,62 @@
           <t>"05/01/2002"</t>
         </is>
       </c>
-      <c r="L25" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L25" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M25" s="40" t="inlineStr">
         <is>
           <t>"05/09/2002"</t>
         </is>
       </c>
-      <c r="N25" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N25" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O25" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P25" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P25" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q25" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R25" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="26" s="34">
       <c r="A26" s="33" t="n"/>
-      <c r="B26" s="40">
-        <f>IF($B$4="None","",$B$25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D26" s="38">
-        <f>(D25)</f>
-        <v/>
+      <c r="B26" s="40" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C26" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D26" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2002"</t>
+        </is>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F26" s="41">
-        <f>(F25)</f>
-        <v/>
+      <c r="F26" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2002"</t>
+        </is>
       </c>
       <c r="G26" s="36" t="n">
         <v>0</v>
@@ -1371,24 +1412,29 @@
       <c r="O26" s="34" t="n"/>
       <c r="P26" s="34" t="n"/>
       <c r="Q26" s="35" t="n"/>
+      <c r="R26" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="27" s="2">
       <c r="A27" s="15" t="n"/>
       <c r="B27" s="40" t="n">
         <v>2003</v>
       </c>
-      <c r="C27" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C27" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D27" s="40" t="inlineStr">
         <is>
           <t>"01/01/2003"</t>
         </is>
       </c>
-      <c r="E27" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F27" s="40" t="inlineStr">
         <is>
@@ -1398,72 +1444,80 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H27" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I27" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J27" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K27" s="40" t="inlineStr">
         <is>
           <t>"05/01/2003"</t>
         </is>
       </c>
-      <c r="L27" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L27" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M27" s="40" t="inlineStr">
         <is>
           <t>"05/09/2003"</t>
         </is>
       </c>
-      <c r="N27" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N27" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O27" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P27" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P27" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q27" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R27" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="28" s="2">
       <c r="A28" s="15" t="n"/>
-      <c r="B28" s="40">
-        <f>IF($B$4="None","",$B$27)</f>
-        <v/>
-      </c>
-      <c r="C28" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D28" s="38">
-        <f>(D27)</f>
-        <v/>
+      <c r="B28" s="40" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C28" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D28" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2003"</t>
+        </is>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F28" s="41">
-        <f>(F27)</f>
-        <v/>
+      <c r="F28" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2003"</t>
+        </is>
       </c>
       <c r="G28" s="36" t="n">
         <v>0</v>
@@ -1478,24 +1532,29 @@
       <c r="O28" s="40" t="n"/>
       <c r="P28" s="40" t="n"/>
       <c r="Q28" s="10" t="n"/>
+      <c r="R28" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="29" s="2">
       <c r="A29" s="15" t="n"/>
       <c r="B29" s="40" t="n">
         <v>2004</v>
       </c>
-      <c r="C29" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C29" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D29" s="40" t="inlineStr">
         <is>
           <t>"01/01/2004"</t>
         </is>
       </c>
-      <c r="E29" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E29" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F29" s="40" t="inlineStr">
         <is>
@@ -1521,56 +1580,62 @@
           <t>"05/01/2004"</t>
         </is>
       </c>
-      <c r="L29" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L29" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M29" s="40" t="inlineStr">
         <is>
           <t>"05/09/2004"</t>
         </is>
       </c>
-      <c r="N29" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N29" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O29" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P29" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P29" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q29" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R29" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="30" s="2">
       <c r="A30" s="15" t="n"/>
-      <c r="B30" s="40">
-        <f>IF($B$4="None","",$B$29)</f>
-        <v/>
-      </c>
-      <c r="C30" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D30" s="38">
-        <f>(D29)</f>
-        <v/>
+      <c r="B30" s="40" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C30" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D30" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2004"</t>
+        </is>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F30" s="41">
-        <f>(F29)</f>
-        <v/>
+      <c r="F30" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2004"</t>
+        </is>
       </c>
       <c r="G30" s="36" t="n">
         <v>0</v>
@@ -1587,24 +1652,29 @@
       <c r="O30" s="40" t="n"/>
       <c r="P30" s="40" t="n"/>
       <c r="Q30" s="10" t="n"/>
+      <c r="R30" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="31" s="2">
       <c r="A31" s="15" t="n"/>
       <c r="B31" s="40" t="n">
         <v>2005</v>
       </c>
-      <c r="C31" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C31" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D31" s="40" t="inlineStr">
         <is>
           <t>"01/01/2005"</t>
         </is>
       </c>
-      <c r="E31" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F31" s="40" t="inlineStr">
         <is>
@@ -1614,72 +1684,80 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H31" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I31" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J31" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K31" s="40" t="inlineStr">
         <is>
           <t>"05/01/2005"</t>
         </is>
       </c>
-      <c r="L31" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L31" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M31" s="40" t="inlineStr">
         <is>
           <t>"05/09/2005"</t>
         </is>
       </c>
-      <c r="N31" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N31" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O31" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P31" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P31" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q31" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R31" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" s="2">
       <c r="A32" s="15" t="n"/>
-      <c r="B32" s="40">
-        <f>IF($B$4="None","",$B$31)</f>
-        <v/>
-      </c>
-      <c r="C32" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D32" s="38">
-        <f>(D31)</f>
-        <v/>
+      <c r="B32" s="40" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C32" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D32" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2005"</t>
+        </is>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F32" s="41">
-        <f>(F31)</f>
-        <v/>
+      <c r="F32" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2005"</t>
+        </is>
       </c>
       <c r="G32" s="36" t="n">
         <v>0</v>
@@ -1694,24 +1772,29 @@
       <c r="O32" s="40" t="n"/>
       <c r="P32" s="40" t="n"/>
       <c r="Q32" s="10" t="n"/>
+      <c r="R32" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="33" s="2">
       <c r="A33" s="15" t="n"/>
       <c r="B33" s="40" t="n">
         <v>2006</v>
       </c>
-      <c r="C33" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C33" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D33" s="40" t="inlineStr">
         <is>
           <t>"01/01/2006"</t>
         </is>
       </c>
-      <c r="E33" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F33" s="40" t="inlineStr">
         <is>
@@ -1737,56 +1820,62 @@
           <t>"05/01/2006"</t>
         </is>
       </c>
-      <c r="L33" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L33" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M33" s="40" t="inlineStr">
         <is>
           <t>"05/09/2006"</t>
         </is>
       </c>
-      <c r="N33" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N33" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O33" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P33" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P33" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q33" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R33" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" s="2">
       <c r="A34" s="15" t="n"/>
-      <c r="B34" s="40">
-        <f>IF($B$4="None","",$B$33)</f>
-        <v/>
-      </c>
-      <c r="C34" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D34" s="38">
-        <f>(D33)</f>
-        <v/>
+      <c r="B34" s="40" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C34" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D34" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2006"</t>
+        </is>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F34" s="41">
-        <f>(F33)</f>
-        <v/>
+      <c r="F34" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2006"</t>
+        </is>
       </c>
       <c r="G34" s="36" t="n">
         <v>0</v>
@@ -1803,24 +1892,29 @@
       <c r="O34" s="40" t="n"/>
       <c r="P34" s="40" t="n"/>
       <c r="Q34" s="10" t="n"/>
+      <c r="R34" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="35" s="2">
       <c r="A35" s="15" t="n"/>
       <c r="B35" s="40" t="n">
         <v>2007</v>
       </c>
-      <c r="C35" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C35" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D35" s="40" t="inlineStr">
         <is>
           <t>"01/01/2007"</t>
         </is>
       </c>
-      <c r="E35" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F35" s="40" t="inlineStr">
         <is>
@@ -1830,72 +1924,80 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H35" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I35" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J35" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K35" s="40" t="inlineStr">
         <is>
           <t>"05/01/2007"</t>
         </is>
       </c>
-      <c r="L35" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L35" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M35" s="40" t="inlineStr">
         <is>
           <t>"05/09/2007"</t>
         </is>
       </c>
-      <c r="N35" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N35" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O35" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P35" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P35" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q35" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R35" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="36" s="2">
       <c r="A36" s="15" t="n"/>
-      <c r="B36" s="40">
-        <f>IF($B$4="None","",$B$35)</f>
-        <v/>
-      </c>
-      <c r="C36" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D36" s="38">
-        <f>(D35)</f>
-        <v/>
+      <c r="B36" s="40" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C36" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D36" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2007"</t>
+        </is>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F36" s="41">
-        <f>(F35)</f>
-        <v/>
+      <c r="F36" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2007"</t>
+        </is>
       </c>
       <c r="G36" s="36" t="n">
         <v>0</v>
@@ -1910,24 +2012,29 @@
       <c r="O36" s="40" t="n"/>
       <c r="P36" s="40" t="n"/>
       <c r="Q36" s="10" t="n"/>
+      <c r="R36" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="37" s="2">
       <c r="A37" s="15" t="n"/>
       <c r="B37" s="40" t="n">
         <v>2008</v>
       </c>
-      <c r="C37" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C37" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D37" s="40" t="inlineStr">
         <is>
           <t>"01/01/2008"</t>
         </is>
       </c>
-      <c r="E37" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E37" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F37" s="40" t="inlineStr">
         <is>
@@ -1953,56 +2060,62 @@
           <t>"05/01/2008"</t>
         </is>
       </c>
-      <c r="L37" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L37" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M37" s="40" t="inlineStr">
         <is>
           <t>"05/09/2008"</t>
         </is>
       </c>
-      <c r="N37" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N37" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O37" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P37" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P37" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q37" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R37" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="38" s="2">
       <c r="A38" s="15" t="n"/>
-      <c r="B38" s="40">
-        <f>IF($B$4="None","",$B$37)</f>
-        <v/>
-      </c>
-      <c r="C38" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D38" s="38">
-        <f>(D37)</f>
-        <v/>
+      <c r="B38" s="40" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C38" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D38" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2008"</t>
+        </is>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F38" s="41">
-        <f>(F37)</f>
-        <v/>
+      <c r="F38" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2008"</t>
+        </is>
       </c>
       <c r="G38" s="36" t="n">
         <v>0</v>
@@ -2019,24 +2132,29 @@
       <c r="O38" s="40" t="n"/>
       <c r="P38" s="40" t="n"/>
       <c r="Q38" s="10" t="n"/>
+      <c r="R38" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="39" s="2">
       <c r="A39" s="15" t="n"/>
       <c r="B39" s="40" t="n">
         <v>2009</v>
       </c>
-      <c r="C39" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C39" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D39" s="40" t="inlineStr">
         <is>
           <t>"01/01/2009"</t>
         </is>
       </c>
-      <c r="E39" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F39" s="40" t="inlineStr">
         <is>
@@ -2046,72 +2164,80 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H39" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I39" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J39" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K39" s="40" t="inlineStr">
         <is>
           <t>"05/01/2009"</t>
         </is>
       </c>
-      <c r="L39" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L39" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M39" s="40" t="inlineStr">
         <is>
           <t>"05/09/2009"</t>
         </is>
       </c>
-      <c r="N39" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N39" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O39" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P39" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P39" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q39" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R39" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="40" s="2">
       <c r="A40" s="15" t="n"/>
-      <c r="B40" s="40">
-        <f>IF($B$4="None","",$B$39)</f>
-        <v/>
-      </c>
-      <c r="C40" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D40" s="38">
-        <f>(D39)</f>
-        <v/>
+      <c r="B40" s="40" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C40" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D40" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2009"</t>
+        </is>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F40" s="41">
-        <f>(F39)</f>
-        <v/>
+      <c r="F40" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2009"</t>
+        </is>
       </c>
       <c r="G40" s="36" t="n">
         <v>0</v>
@@ -2126,24 +2252,29 @@
       <c r="O40" s="40" t="n"/>
       <c r="P40" s="40" t="n"/>
       <c r="Q40" s="10" t="n"/>
+      <c r="R40" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="41" s="2">
       <c r="A41" s="15" t="n"/>
       <c r="B41" s="40" t="n">
         <v>2010</v>
       </c>
-      <c r="C41" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C41" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D41" s="40" t="inlineStr">
         <is>
           <t>"01/01/2010"</t>
         </is>
       </c>
-      <c r="E41" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F41" s="40" t="inlineStr">
         <is>
@@ -2169,56 +2300,62 @@
           <t>"05/01/2010"</t>
         </is>
       </c>
-      <c r="L41" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L41" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M41" s="40" t="inlineStr">
         <is>
           <t>"05/09/2010"</t>
         </is>
       </c>
-      <c r="N41" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N41" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O41" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P41" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P41" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q41" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R41" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="42" s="2">
       <c r="A42" s="15" t="n"/>
-      <c r="B42" s="40">
-        <f>IF($B$4="None","",$B$41)</f>
-        <v/>
-      </c>
-      <c r="C42" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D42" s="38">
-        <f>(D41)</f>
-        <v/>
+      <c r="B42" s="40" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C42" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D42" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2010"</t>
+        </is>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F42" s="41">
-        <f>(F41)</f>
-        <v/>
+      <c r="F42" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2010"</t>
+        </is>
       </c>
       <c r="G42" s="36" t="n">
         <v>0</v>
@@ -2235,24 +2372,29 @@
       <c r="O42" s="40" t="n"/>
       <c r="P42" s="40" t="n"/>
       <c r="Q42" s="10" t="n"/>
+      <c r="R42" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="43" s="2">
       <c r="A43" s="15" t="n"/>
       <c r="B43" s="40" t="n">
         <v>2011</v>
       </c>
-      <c r="C43" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C43" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D43" s="40" t="inlineStr">
         <is>
           <t>"01/01/2011"</t>
         </is>
       </c>
-      <c r="E43" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F43" s="40" t="inlineStr">
         <is>
@@ -2262,72 +2404,80 @@
       <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H43" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I43" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J43" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K43" s="40" t="inlineStr">
         <is>
           <t>"05/01/2011"</t>
         </is>
       </c>
-      <c r="L43" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L43" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M43" s="40" t="inlineStr">
         <is>
           <t>"05/09/2011"</t>
         </is>
       </c>
-      <c r="N43" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N43" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O43" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P43" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P43" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q43" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R43" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" s="2">
       <c r="A44" s="15" t="n"/>
-      <c r="B44" s="40">
-        <f>IF($B$4="None","",$B$43)</f>
-        <v/>
-      </c>
-      <c r="C44" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D44" s="38">
-        <f>(D43)</f>
-        <v/>
+      <c r="B44" s="40" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C44" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D44" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2011"</t>
+        </is>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F44" s="41">
-        <f>(F43)</f>
-        <v/>
+      <c r="F44" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2011"</t>
+        </is>
       </c>
       <c r="G44" s="36" t="n">
         <v>0</v>
@@ -2342,24 +2492,29 @@
       <c r="O44" s="40" t="n"/>
       <c r="P44" s="40" t="n"/>
       <c r="Q44" s="10" t="n"/>
+      <c r="R44" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="45" s="2">
       <c r="A45" s="15" t="n"/>
       <c r="B45" s="40" t="n">
         <v>2012</v>
       </c>
-      <c r="C45" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C45" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D45" s="40" t="inlineStr">
         <is>
           <t>"01/01/2012"</t>
         </is>
       </c>
-      <c r="E45" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E45" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F45" s="40" t="inlineStr">
         <is>
@@ -2385,56 +2540,62 @@
           <t>"05/01/2012"</t>
         </is>
       </c>
-      <c r="L45" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L45" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M45" s="40" t="inlineStr">
         <is>
           <t>"05/09/2012"</t>
         </is>
       </c>
-      <c r="N45" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N45" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O45" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P45" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P45" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q45" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R45" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="46" s="2">
       <c r="A46" s="15" t="n"/>
-      <c r="B46" s="40">
-        <f>IF($B$4="None","",$B$45)</f>
-        <v/>
-      </c>
-      <c r="C46" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D46" s="38">
-        <f>(D45)</f>
-        <v/>
+      <c r="B46" s="40" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C46" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D46" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2012"</t>
+        </is>
       </c>
       <c r="E46" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F46" s="41">
-        <f>(F45)</f>
-        <v/>
+      <c r="F46" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2012"</t>
+        </is>
       </c>
       <c r="G46" s="36" t="n">
         <v>0</v>
@@ -2451,24 +2612,29 @@
       <c r="O46" s="40" t="n"/>
       <c r="P46" s="40" t="n"/>
       <c r="Q46" s="10" t="n"/>
+      <c r="R46" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="47" s="2">
       <c r="A47" s="15" t="n"/>
       <c r="B47" s="40" t="n">
         <v>2013</v>
       </c>
-      <c r="C47" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C47" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D47" s="40" t="inlineStr">
         <is>
           <t>"01/01/2013"</t>
         </is>
       </c>
-      <c r="E47" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F47" s="40" t="inlineStr">
         <is>
@@ -2478,72 +2644,80 @@
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H47" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I47" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J47" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J47" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K47" s="40" t="inlineStr">
         <is>
           <t>"05/01/2013"</t>
         </is>
       </c>
-      <c r="L47" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L47" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M47" s="40" t="inlineStr">
         <is>
           <t>"05/09/2013"</t>
         </is>
       </c>
-      <c r="N47" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N47" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O47" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P47" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P47" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q47" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R47" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="48" s="2">
       <c r="A48" s="15" t="n"/>
-      <c r="B48" s="40">
-        <f>IF($B$4="None","",$B$47)</f>
-        <v/>
-      </c>
-      <c r="C48" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D48" s="38">
-        <f>(D47)</f>
-        <v/>
+      <c r="B48" s="40" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C48" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D48" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2013"</t>
+        </is>
       </c>
       <c r="E48" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F48" s="41">
-        <f>(F47)</f>
-        <v/>
+      <c r="F48" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2013"</t>
+        </is>
       </c>
       <c r="G48" s="36" t="n">
         <v>0</v>
@@ -2558,24 +2732,29 @@
       <c r="O48" s="40" t="n"/>
       <c r="P48" s="40" t="n"/>
       <c r="Q48" s="10" t="n"/>
+      <c r="R48" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="49" s="2">
       <c r="A49" s="15" t="n"/>
       <c r="B49" s="40" t="n">
         <v>2014</v>
       </c>
-      <c r="C49" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C49" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D49" s="40" t="inlineStr">
         <is>
           <t>"01/01/2014"</t>
         </is>
       </c>
-      <c r="E49" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E49" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F49" s="40" t="inlineStr">
         <is>
@@ -2601,56 +2780,62 @@
           <t>"05/01/2014"</t>
         </is>
       </c>
-      <c r="L49" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L49" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M49" s="40" t="inlineStr">
         <is>
           <t>"05/09/2014"</t>
         </is>
       </c>
-      <c r="N49" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N49" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O49" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P49" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P49" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q49" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R49" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="50" s="2">
       <c r="A50" s="15" t="n"/>
-      <c r="B50" s="40">
-        <f>IF($B$4="None","",$B$49)</f>
-        <v/>
-      </c>
-      <c r="C50" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D50" s="38">
-        <f>(D49)</f>
-        <v/>
+      <c r="B50" s="40" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C50" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D50" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2014"</t>
+        </is>
       </c>
       <c r="E50" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F50" s="41">
-        <f>(F49)</f>
-        <v/>
+      <c r="F50" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2014"</t>
+        </is>
       </c>
       <c r="G50" s="36" t="n">
         <v>0</v>
@@ -2667,24 +2852,29 @@
       <c r="O50" s="40" t="n"/>
       <c r="P50" s="40" t="n"/>
       <c r="Q50" s="10" t="n"/>
+      <c r="R50" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="51" s="2">
       <c r="A51" s="15" t="n"/>
       <c r="B51" s="40" t="n">
         <v>2015</v>
       </c>
-      <c r="C51" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C51" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D51" s="40" t="inlineStr">
         <is>
           <t>"01/01/2015"</t>
         </is>
       </c>
-      <c r="E51" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E51" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F51" s="40" t="inlineStr">
         <is>
@@ -2694,72 +2884,80 @@
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H51" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I51" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J51" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K51" s="40" t="inlineStr">
         <is>
           <t>"05/01/2015"</t>
         </is>
       </c>
-      <c r="L51" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L51" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M51" s="40" t="inlineStr">
         <is>
           <t>"05/09/2015"</t>
         </is>
       </c>
-      <c r="N51" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N51" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O51" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P51" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P51" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q51" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R51" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="52" s="2">
       <c r="A52" s="15" t="n"/>
-      <c r="B52" s="40">
-        <f>IF($B$4="None","",$B$51)</f>
-        <v/>
-      </c>
-      <c r="C52" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D52" s="38">
-        <f>(D51)</f>
-        <v/>
+      <c r="B52" s="40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C52" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D52" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2015"</t>
+        </is>
       </c>
       <c r="E52" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F52" s="41">
-        <f>(F51)</f>
-        <v/>
+      <c r="F52" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2015"</t>
+        </is>
       </c>
       <c r="G52" s="36" t="n">
         <v>0</v>
@@ -2774,24 +2972,29 @@
       <c r="O52" s="40" t="n"/>
       <c r="P52" s="40" t="n"/>
       <c r="Q52" s="10" t="n"/>
+      <c r="R52" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="53" s="2">
       <c r="A53" s="15" t="n"/>
       <c r="B53" s="40" t="n">
         <v>2016</v>
       </c>
-      <c r="C53" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C53" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D53" s="40" t="inlineStr">
         <is>
           <t>"01/01/2016"</t>
         </is>
       </c>
-      <c r="E53" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E53" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F53" s="40" t="inlineStr">
         <is>
@@ -2817,56 +3020,62 @@
           <t>"05/01/2016"</t>
         </is>
       </c>
-      <c r="L53" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L53" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M53" s="40" t="inlineStr">
         <is>
           <t>"05/09/2016"</t>
         </is>
       </c>
-      <c r="N53" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N53" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O53" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P53" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P53" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q53" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R53" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="54" s="2">
       <c r="A54" s="15" t="n"/>
-      <c r="B54" s="40">
-        <f>IF($B$4="None","",$B$53)</f>
-        <v/>
-      </c>
-      <c r="C54" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D54" s="38">
-        <f>(D53)</f>
-        <v/>
+      <c r="B54" s="40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C54" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D54" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2016"</t>
+        </is>
       </c>
       <c r="E54" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F54" s="41">
-        <f>(F53)</f>
-        <v/>
+      <c r="F54" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2016"</t>
+        </is>
       </c>
       <c r="G54" s="36" t="n">
         <v>0</v>
@@ -2883,24 +3092,29 @@
       <c r="O54" s="40" t="n"/>
       <c r="P54" s="40" t="n"/>
       <c r="Q54" s="10" t="n"/>
+      <c r="R54" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="55" s="2">
       <c r="A55" s="15" t="n"/>
       <c r="B55" s="40" t="n">
         <v>2017</v>
       </c>
-      <c r="C55" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C55" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D55" s="40" t="inlineStr">
         <is>
           <t>"01/01/2017"</t>
         </is>
       </c>
-      <c r="E55" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E55" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F55" s="40" t="inlineStr">
         <is>
@@ -2910,72 +3124,80 @@
       <c r="G55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H55" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I55" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J55" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K55" s="40" t="inlineStr">
         <is>
           <t>"05/01/2017"</t>
         </is>
       </c>
-      <c r="L55" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L55" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M55" s="40" t="inlineStr">
         <is>
           <t>"05/09/2017"</t>
         </is>
       </c>
-      <c r="N55" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N55" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O55" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P55" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P55" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q55" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R55" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="56" s="2">
       <c r="A56" s="15" t="n"/>
-      <c r="B56" s="40">
-        <f>IF($B$4="None","",$B$55)</f>
-        <v/>
-      </c>
-      <c r="C56" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D56" s="38">
-        <f>(D55)</f>
-        <v/>
+      <c r="B56" s="40" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D56" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2017"</t>
+        </is>
       </c>
       <c r="E56" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F56" s="41">
-        <f>(F55)</f>
-        <v/>
+      <c r="F56" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2017"</t>
+        </is>
       </c>
       <c r="G56" s="36" t="n">
         <v>0</v>
@@ -2992,24 +3214,29 @@
       <c r="O56" s="40" t="n"/>
       <c r="P56" s="40" t="n"/>
       <c r="Q56" s="10" t="n"/>
+      <c r="R56" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="57" s="2">
       <c r="A57" s="15" t="n"/>
       <c r="B57" s="40" t="n">
         <v>2018</v>
       </c>
-      <c r="C57" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C57" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D57" s="40" t="inlineStr">
         <is>
           <t>"01/01/2018"</t>
         </is>
       </c>
-      <c r="E57" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E57" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F57" s="40" t="inlineStr">
         <is>
@@ -3035,56 +3262,62 @@
           <t>"05/01/2018"</t>
         </is>
       </c>
-      <c r="L57" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L57" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M57" s="40" t="inlineStr">
         <is>
           <t>"05/09/2018"</t>
         </is>
       </c>
-      <c r="N57" s="40">
-        <f>$B$8</f>
-        <v/>
+      <c r="N57" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O57" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P57" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P57" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q57" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R57" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" s="2">
       <c r="A58" s="15" t="n"/>
-      <c r="B58" s="40">
-        <f>IF($B$4="None","",$B$57)</f>
-        <v/>
-      </c>
-      <c r="C58" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D58" s="38">
-        <f>(D57)</f>
-        <v/>
+      <c r="B58" s="40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C58" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D58" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2018"</t>
+        </is>
       </c>
       <c r="E58" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F58" s="41">
-        <f>(F57)</f>
-        <v/>
+      <c r="F58" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2018"</t>
+        </is>
       </c>
       <c r="G58" s="36" t="n">
         <v>0</v>
@@ -3103,24 +3336,29 @@
       <c r="O58" s="40" t="n"/>
       <c r="P58" s="40" t="n"/>
       <c r="Q58" s="10" t="n"/>
+      <c r="R58" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="59" s="2">
       <c r="A59" s="15" t="n"/>
       <c r="B59" s="40" t="n">
         <v>2019</v>
       </c>
-      <c r="C59" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C59" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D59" s="40" t="inlineStr">
         <is>
           <t>"01/01/2019"</t>
         </is>
       </c>
-      <c r="E59" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E59" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F59" s="40" t="inlineStr">
         <is>
@@ -3130,72 +3368,80 @@
       <c r="G59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H59" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I59" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J59" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K59" s="40" t="inlineStr">
         <is>
           <t>"05/01/2019"</t>
         </is>
       </c>
-      <c r="L59" s="40">
-        <f>$B$7</f>
-        <v/>
+      <c r="L59" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M59" s="40" t="inlineStr">
         <is>
           <t>"05/09/2019"</t>
         </is>
       </c>
-      <c r="N59" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+      <c r="N59" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O59" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P59" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P59" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q59" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R59" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="60" s="2">
       <c r="A60" s="15" t="n"/>
-      <c r="B60" s="40">
-        <f>IF($B$4="None","",$B$59)</f>
-        <v/>
-      </c>
-      <c r="C60" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D60" s="38">
-        <f>(D59)</f>
-        <v/>
+      <c r="B60" s="40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D60" s="38" t="inlineStr">
+        <is>
+          <t>"01/01/2019"</t>
+        </is>
       </c>
       <c r="E60" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F60" s="41">
-        <f>(F59)</f>
-        <v/>
+      <c r="F60" s="41" t="inlineStr">
+        <is>
+          <t>"10/01/2019"</t>
+        </is>
       </c>
       <c r="G60" s="36" t="n">
         <v>0</v>
@@ -3214,6 +3460,9 @@
       <c r="O60" s="40" t="n"/>
       <c r="P60" s="40" t="n"/>
       <c r="Q60" s="10" t="n"/>
+      <c r="R60" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="61" s="2"/>
     <row customHeight="1" ht="25" r="62" s="2">
@@ -3327,6 +3576,11 @@
           <t>did_you_burn_residue</t>
         </is>
       </c>
+      <c r="R64" s="21" t="inlineStr">
+        <is>
+          <t>crop_number</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="65" s="2">
       <c r="A65" s="26" t="n"/>
@@ -3343,9 +3597,10 @@
           <t>"01/01/2020"</t>
         </is>
       </c>
-      <c r="E65" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E65" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F65" s="40" t="inlineStr">
         <is>
@@ -3361,65 +3616,72 @@
       <c r="I65" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J65" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J65" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K65" s="40" t="inlineStr">
         <is>
           <t>"05/01/2020"</t>
         </is>
       </c>
-      <c r="L65" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L65" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M65" s="40" t="inlineStr">
         <is>
           <t>"05/09/2020"</t>
         </is>
       </c>
-      <c r="N65" s="40">
-        <f>$B$16</f>
-        <v/>
+      <c r="N65" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O65" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P65" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P65" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q65" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R65" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="66" s="2">
       <c r="A66" s="26" t="n"/>
-      <c r="B66" s="40">
-        <f>(B65)</f>
-        <v/>
-      </c>
-      <c r="C66" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D66" s="40">
-        <f>(D65)</f>
-        <v/>
+      <c r="B66" s="40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D66" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2020"</t>
+        </is>
       </c>
       <c r="E66" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F66" s="40">
-        <f>(F65)</f>
-        <v/>
+      <c r="F66" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2020"</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -3436,24 +3698,29 @@
       <c r="O66" s="40" t="n"/>
       <c r="P66" s="40" t="n"/>
       <c r="Q66" s="10" t="n"/>
+      <c r="R66" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="67" s="2">
       <c r="A67" s="26" t="n"/>
       <c r="B67" s="40" t="n">
         <v>2021</v>
       </c>
-      <c r="C67" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C67" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D67" s="40" t="inlineStr">
         <is>
           <t>"01/01/2021"</t>
         </is>
       </c>
-      <c r="E67" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E67" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F67" s="40" t="inlineStr">
         <is>
@@ -3463,72 +3730,80 @@
       <c r="G67" t="n">
         <v>60</v>
       </c>
-      <c r="H67" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H67" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I67" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J67" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J67" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K67" s="40" t="inlineStr">
         <is>
           <t>"05/01/2021"</t>
         </is>
       </c>
-      <c r="L67" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L67" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M67" s="40" t="inlineStr">
         <is>
           <t>"05/09/2021"</t>
         </is>
       </c>
-      <c r="N67" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+      <c r="N67" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O67" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P67" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P67" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q67" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R67" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="68" s="2">
       <c r="A68" s="26" t="n"/>
-      <c r="B68" s="40">
-        <f>(B67)</f>
-        <v/>
-      </c>
-      <c r="C68" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D68" s="40">
-        <f>(D67)</f>
-        <v/>
+      <c r="B68" s="40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D68" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2021"</t>
+        </is>
       </c>
       <c r="E68" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F68" s="40">
-        <f>(F67)</f>
-        <v/>
+      <c r="F68" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2021"</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3543,6 +3818,9 @@
       <c r="O68" s="40" t="n"/>
       <c r="P68" s="40" t="n"/>
       <c r="Q68" s="10" t="n"/>
+      <c r="R68" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="69" s="2">
       <c r="A69" s="26" t="n"/>
@@ -3559,9 +3837,10 @@
           <t>"01/01/2022"</t>
         </is>
       </c>
-      <c r="E69" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E69" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F69" s="40" t="inlineStr">
         <is>
@@ -3577,65 +3856,72 @@
       <c r="I69" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J69" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J69" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K69" s="40" t="inlineStr">
         <is>
           <t>"05/01/2022"</t>
         </is>
       </c>
-      <c r="L69" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L69" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M69" s="40" t="inlineStr">
         <is>
           <t>"05/09/2022"</t>
         </is>
       </c>
-      <c r="N69" s="40">
-        <f>$B$16</f>
-        <v/>
+      <c r="N69" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O69" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P69" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P69" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q69" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R69" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="70" s="2">
       <c r="A70" s="26" t="n"/>
-      <c r="B70" s="40">
-        <f>(B69)</f>
-        <v/>
-      </c>
-      <c r="C70" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D70" s="40">
-        <f>(D69)</f>
-        <v/>
+      <c r="B70" s="40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C70" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D70" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2022"</t>
+        </is>
       </c>
       <c r="E70" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F70" s="40">
-        <f>(F69)</f>
-        <v/>
+      <c r="F70" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2022"</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3652,24 +3938,29 @@
       <c r="O70" s="40" t="n"/>
       <c r="P70" s="40" t="n"/>
       <c r="Q70" s="10" t="n"/>
+      <c r="R70" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="71" s="2">
       <c r="A71" s="26" t="n"/>
       <c r="B71" s="40" t="n">
         <v>2023</v>
       </c>
-      <c r="C71" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C71" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D71" s="40" t="inlineStr">
         <is>
           <t>"01/01/2023"</t>
         </is>
       </c>
-      <c r="E71" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E71" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F71" s="40" t="inlineStr">
         <is>
@@ -3679,72 +3970,80 @@
       <c r="G71" t="n">
         <v>60</v>
       </c>
-      <c r="H71" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H71" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I71" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J71" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J71" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K71" s="40" t="inlineStr">
         <is>
           <t>"05/01/2023"</t>
         </is>
       </c>
-      <c r="L71" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L71" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M71" s="40" t="inlineStr">
         <is>
           <t>"05/09/2023"</t>
         </is>
       </c>
-      <c r="N71" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+      <c r="N71" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O71" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P71" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P71" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q71" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R71" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="72" s="2">
       <c r="A72" s="26" t="n"/>
-      <c r="B72" s="40">
-        <f>(B71)</f>
-        <v/>
-      </c>
-      <c r="C72" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D72" s="40">
-        <f>(D71)</f>
-        <v/>
+      <c r="B72" s="40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C72" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D72" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2023"</t>
+        </is>
       </c>
       <c r="E72" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F72" s="40">
-        <f>(F71)</f>
-        <v/>
+      <c r="F72" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2023"</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3759,6 +4058,9 @@
       <c r="O72" s="40" t="n"/>
       <c r="P72" s="40" t="n"/>
       <c r="Q72" s="10" t="n"/>
+      <c r="R72" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="73" s="2">
       <c r="A73" s="26" t="n"/>
@@ -3775,9 +4077,10 @@
           <t>"01/01/2024"</t>
         </is>
       </c>
-      <c r="E73" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E73" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F73" s="40" t="inlineStr">
         <is>
@@ -3793,65 +4096,72 @@
       <c r="I73" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J73" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J73" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K73" s="40" t="inlineStr">
         <is>
           <t>"05/01/2024"</t>
         </is>
       </c>
-      <c r="L73" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L73" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M73" s="40" t="inlineStr">
         <is>
           <t>"05/09/2024"</t>
         </is>
       </c>
-      <c r="N73" s="40">
-        <f>$B$16</f>
-        <v/>
+      <c r="N73" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O73" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P73" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P73" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q73" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R73" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="74" s="2">
       <c r="A74" s="26" t="n"/>
-      <c r="B74" s="40">
-        <f>(B73)</f>
-        <v/>
-      </c>
-      <c r="C74" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D74" s="40">
-        <f>(D73)</f>
-        <v/>
+      <c r="B74" s="40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C74" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D74" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2024"</t>
+        </is>
       </c>
       <c r="E74" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F74" s="40">
-        <f>(F73)</f>
-        <v/>
+      <c r="F74" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2024"</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3868,24 +4178,29 @@
       <c r="O74" s="40" t="n"/>
       <c r="P74" s="40" t="n"/>
       <c r="Q74" s="10" t="n"/>
+      <c r="R74" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="75" s="2">
       <c r="A75" s="26" t="n"/>
       <c r="B75" s="40" t="n">
         <v>2025</v>
       </c>
-      <c r="C75" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C75" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D75" s="40" t="inlineStr">
         <is>
           <t>"01/01/2025"</t>
         </is>
       </c>
-      <c r="E75" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E75" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F75" s="40" t="inlineStr">
         <is>
@@ -3895,72 +4210,80 @@
       <c r="G75" t="n">
         <v>60</v>
       </c>
-      <c r="H75" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H75" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I75" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J75" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J75" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K75" s="40" t="inlineStr">
         <is>
           <t>"05/01/2025"</t>
         </is>
       </c>
-      <c r="L75" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L75" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M75" s="40" t="inlineStr">
         <is>
           <t>"05/09/2025"</t>
         </is>
       </c>
-      <c r="N75" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+      <c r="N75" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O75" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P75" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P75" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q75" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R75" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="76" s="2">
       <c r="A76" s="26" t="n"/>
-      <c r="B76" s="40">
-        <f>(B75)</f>
-        <v/>
-      </c>
-      <c r="C76" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D76" s="40">
-        <f>(D75)</f>
-        <v/>
+      <c r="B76" s="40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D76" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2025"</t>
+        </is>
       </c>
       <c r="E76" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F76" s="40">
-        <f>(F75)</f>
-        <v/>
+      <c r="F76" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2025"</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3975,6 +4298,9 @@
       <c r="O76" s="40" t="n"/>
       <c r="P76" s="40" t="n"/>
       <c r="Q76" s="10" t="n"/>
+      <c r="R76" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="77" s="2">
       <c r="A77" s="26" t="n"/>
@@ -3991,9 +4317,10 @@
           <t>"01/01/2026"</t>
         </is>
       </c>
-      <c r="E77" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E77" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F77" s="40" t="inlineStr">
         <is>
@@ -4009,65 +4336,72 @@
       <c r="I77" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J77" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J77" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K77" s="40" t="inlineStr">
         <is>
           <t>"05/01/2026"</t>
         </is>
       </c>
-      <c r="L77" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L77" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M77" s="40" t="inlineStr">
         <is>
           <t>"05/09/2026"</t>
         </is>
       </c>
-      <c r="N77" s="40">
-        <f>$B$16</f>
-        <v/>
+      <c r="N77" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O77" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P77" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P77" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q77" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R77" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="78" s="2">
       <c r="A78" s="26" t="n"/>
-      <c r="B78" s="40">
-        <f>(B77)</f>
-        <v/>
-      </c>
-      <c r="C78" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D78" s="40">
-        <f>(D77)</f>
-        <v/>
+      <c r="B78" s="40" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C78" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D78" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2026"</t>
+        </is>
       </c>
       <c r="E78" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F78" s="40">
-        <f>(F77)</f>
-        <v/>
+      <c r="F78" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2026"</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -4084,24 +4418,29 @@
       <c r="O78" s="40" t="n"/>
       <c r="P78" s="40" t="n"/>
       <c r="Q78" s="10" t="n"/>
+      <c r="R78" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="79" s="2">
       <c r="A79" s="26" t="n"/>
       <c r="B79" s="40" t="n">
         <v>2027</v>
       </c>
-      <c r="C79" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C79" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D79" s="40" t="inlineStr">
         <is>
           <t>"01/01/2027"</t>
         </is>
       </c>
-      <c r="E79" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E79" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F79" s="40" t="inlineStr">
         <is>
@@ -4111,72 +4450,80 @@
       <c r="G79" t="n">
         <v>60</v>
       </c>
-      <c r="H79" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H79" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I79" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J79" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J79" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K79" s="40" t="inlineStr">
         <is>
           <t>"05/01/2027"</t>
         </is>
       </c>
-      <c r="L79" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L79" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M79" s="40" t="inlineStr">
         <is>
           <t>"05/09/2027"</t>
         </is>
       </c>
-      <c r="N79" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+      <c r="N79" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O79" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P79" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P79" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q79" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R79" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="80" s="2">
       <c r="A80" s="26" t="n"/>
-      <c r="B80" s="40">
-        <f>(B79)</f>
-        <v/>
-      </c>
-      <c r="C80" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D80" s="40">
-        <f>(D79)</f>
-        <v/>
+      <c r="B80" s="40" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C80" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D80" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2027"</t>
+        </is>
       </c>
       <c r="E80" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F80" s="40">
-        <f>(F79)</f>
-        <v/>
+      <c r="F80" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2027"</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4191,6 +4538,9 @@
       <c r="O80" s="40" t="n"/>
       <c r="P80" s="40" t="n"/>
       <c r="Q80" s="10" t="n"/>
+      <c r="R80" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="81" s="2">
       <c r="A81" s="26" t="n"/>
@@ -4207,9 +4557,10 @@
           <t>"01/01/2028"</t>
         </is>
       </c>
-      <c r="E81" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E81" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F81" s="40" t="inlineStr">
         <is>
@@ -4225,65 +4576,72 @@
       <c r="I81" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J81" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J81" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K81" s="40" t="inlineStr">
         <is>
           <t>"05/01/2028"</t>
         </is>
       </c>
-      <c r="L81" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L81" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M81" s="40" t="inlineStr">
         <is>
           <t>"05/09/2028"</t>
         </is>
       </c>
-      <c r="N81" s="40">
-        <f>$B$16</f>
-        <v/>
+      <c r="N81" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O81" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P81" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P81" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q81" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R81" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="82" s="2">
       <c r="A82" s="26" t="n"/>
-      <c r="B82" s="40">
-        <f>(B81)</f>
-        <v/>
-      </c>
-      <c r="C82" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D82" s="40">
-        <f>(D81)</f>
-        <v/>
+      <c r="B82" s="40" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C82" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D82" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2028"</t>
+        </is>
       </c>
       <c r="E82" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F82" s="40">
-        <f>(F81)</f>
-        <v/>
+      <c r="F82" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2028"</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4300,24 +4658,29 @@
       <c r="O82" s="40" t="n"/>
       <c r="P82" s="40" t="n"/>
       <c r="Q82" s="10" t="n"/>
+      <c r="R82" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="83" s="2">
       <c r="A83" s="26" t="n"/>
       <c r="B83" s="40" t="n">
         <v>2029</v>
       </c>
-      <c r="C83" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C83" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D83" s="40" t="inlineStr">
         <is>
           <t>"01/01/2029"</t>
         </is>
       </c>
-      <c r="E83" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F83" s="40" t="inlineStr">
         <is>
@@ -4327,72 +4690,80 @@
       <c r="G83" t="n">
         <v>60</v>
       </c>
-      <c r="H83" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H83" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I83" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J83" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J83" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K83" s="40" t="inlineStr">
         <is>
           <t>"05/01/2029"</t>
         </is>
       </c>
-      <c r="L83" s="40">
-        <f>$B$15</f>
-        <v/>
+      <c r="L83" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M83" s="40" t="inlineStr">
         <is>
           <t>"05/09/2029"</t>
         </is>
       </c>
-      <c r="N83" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+      <c r="N83" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O83" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P83" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P83" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q83" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R83" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="84" s="2">
       <c r="A84" s="26" t="n"/>
-      <c r="B84" s="40">
-        <f>(B83)</f>
-        <v/>
-      </c>
-      <c r="C84" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D84" s="40">
-        <f>(D83)</f>
-        <v/>
+      <c r="B84" s="40" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C84" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D84" s="40" t="inlineStr">
+        <is>
+          <t>"01/01/2029"</t>
+        </is>
       </c>
       <c r="E84" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F84" s="40">
-        <f>(F83)</f>
-        <v/>
+      <c r="F84" s="40" t="inlineStr">
+        <is>
+          <t>"10/01/2029"</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4407,6 +4778,9 @@
       <c r="O84" s="40" t="n"/>
       <c r="P84" s="40" t="n"/>
       <c r="Q84" s="10" t="n"/>
+      <c r="R84" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="86" s="2">
       <c r="A86" s="37" t="n"/>
@@ -4959,7 +5333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4970,14 +5344,18 @@
     <col customWidth="1" max="1" min="1" style="17" width="18.33203125"/>
     <col customWidth="1" max="2" min="2" style="40" width="24.83203125"/>
     <col customWidth="1" max="3" min="3" style="40" width="21.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="40" width="12.33203125"/>
+    <col customWidth="1" max="4" min="4" style="40" width="12.33203125"/>
     <col customWidth="1" max="5" min="5" style="40" width="14.1640625"/>
     <col customWidth="1" max="6" min="6" style="40" width="15.1640625"/>
     <col customWidth="1" max="7" min="7" style="40" width="11.83203125"/>
     <col customWidth="1" max="8" min="8" style="40" width="11.5"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="40" width="11"/>
     <col customWidth="1" max="10" min="10" style="40" width="20.83203125"/>
-    <col customWidth="1" max="15" min="11" style="40" width="10.83203125"/>
+    <col customWidth="1" max="11" min="11" style="40" width="10.83203125"/>
+    <col customWidth="1" max="12" min="12" style="40" width="16.83203125"/>
+    <col customWidth="1" max="13" min="13" style="40" width="10.83203125"/>
+    <col customWidth="1" max="14" min="14" style="40" width="17.6640625"/>
+    <col customWidth="1" max="15" min="15" style="40" width="10.83203125"/>
     <col customWidth="1" max="16" min="16" style="40" width="21"/>
     <col customWidth="1" max="16384" min="17" style="40" width="10.83203125"/>
   </cols>
@@ -5033,7 +5411,7 @@
       </c>
       <c r="B5" s="32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -5271,6 +5649,11 @@
       <c r="Q20" s="21" t="inlineStr">
         <is>
           <t>did_you_burn_residue</t>
+        </is>
+      </c>
+      <c r="R20" s="21" t="inlineStr">
+        <is>
+          <t>crop_number</t>
         </is>
       </c>
     </row>
@@ -5279,29 +5662,33 @@
       <c r="B21" s="40" t="n">
         <v>2000</v>
       </c>
-      <c r="C21" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C21" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D21" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2000"</t>
-        </is>
-      </c>
-      <c r="E21" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2000</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F21" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2000"</t>
+          <t>07/19/2000</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>60</v>
       </c>
-      <c r="H21" s="10" t="b">
-        <v>1</v>
+      <c r="H21" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I21" s="40" t="n">
         <v>0</v>
@@ -5313,59 +5700,65 @@
       </c>
       <c r="K21" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2000"</t>
-        </is>
-      </c>
-      <c r="L21" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2000</t>
+        </is>
+      </c>
+      <c r="L21" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M21" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2000"</t>
-        </is>
-      </c>
-      <c r="N21" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2000</t>
+        </is>
+      </c>
+      <c r="N21" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O21" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P21" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P21" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q21" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R21" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="22" s="34">
       <c r="A22" s="33" t="n"/>
-      <c r="B22" s="40">
-        <f>IF($B$4="None","",$B$21)</f>
-        <v/>
-      </c>
-      <c r="C22" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D22" s="38">
-        <f>(D21)</f>
-        <v/>
+      <c r="B22" s="40" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C22" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D22" s="38" t="inlineStr">
+        <is>
+          <t>10/07/2000</t>
+        </is>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F22" s="41">
-        <f>(F21)</f>
-        <v/>
+      <c r="F22" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2000</t>
+        </is>
       </c>
       <c r="G22" s="36" t="n">
         <v>0</v>
@@ -5384,99 +5777,112 @@
       <c r="O22" s="34" t="n"/>
       <c r="P22" s="34" t="n"/>
       <c r="Q22" s="35" t="n"/>
+      <c r="R22" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="23" s="2">
       <c r="A23" s="15" t="n"/>
       <c r="B23" s="40" t="n">
         <v>2001</v>
       </c>
-      <c r="C23" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C23" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D23" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2001"</t>
-        </is>
-      </c>
-      <c r="E23" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2001</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F23" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2001"</t>
+          <t>07/19/2001</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H23" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I23" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J23" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K23" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2001"</t>
-        </is>
-      </c>
-      <c r="L23" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2001</t>
+        </is>
+      </c>
+      <c r="L23" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M23" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2001"</t>
-        </is>
-      </c>
-      <c r="N23" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2001</t>
+        </is>
+      </c>
+      <c r="N23" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O23" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P23" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P23" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q23" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R23" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="24" s="34">
       <c r="A24" s="33" t="n"/>
-      <c r="B24" s="40">
-        <f>IF($B$4="None","",$B$23)</f>
-        <v/>
-      </c>
-      <c r="C24" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D24" s="38">
-        <f>(D23)</f>
-        <v/>
+      <c r="B24" s="40" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D24" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2001</t>
+        </is>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F24" s="41">
-        <f>(F23)</f>
-        <v/>
+      <c r="F24" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2001</t>
+        </is>
       </c>
       <c r="G24" s="36" t="n">
         <v>0</v>
@@ -5495,35 +5901,42 @@
       <c r="O24" s="34" t="n"/>
       <c r="P24" s="34" t="n"/>
       <c r="Q24" s="35" t="n"/>
+      <c r="R24" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="25" s="2">
       <c r="A25" s="15" t="n"/>
       <c r="B25" s="40" t="n">
         <v>2002</v>
       </c>
-      <c r="C25" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C25" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D25" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2002"</t>
-        </is>
-      </c>
-      <c r="E25" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2002</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F25" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2002"</t>
+          <t>07/19/2002</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>53</v>
       </c>
-      <c r="H25" s="10" t="b">
-        <v>1</v>
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I25" s="40" t="n">
         <v>0</v>
@@ -5535,59 +5948,65 @@
       </c>
       <c r="K25" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2002"</t>
-        </is>
-      </c>
-      <c r="L25" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2002</t>
+        </is>
+      </c>
+      <c r="L25" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M25" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2002"</t>
-        </is>
-      </c>
-      <c r="N25" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2002</t>
+        </is>
+      </c>
+      <c r="N25" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O25" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P25" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P25" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q25" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R25" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="25" r="26" s="34">
       <c r="A26" s="33" t="n"/>
-      <c r="B26" s="40">
-        <f>IF($B$4="None","",$B$25)</f>
-        <v/>
-      </c>
-      <c r="C26" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D26" s="38">
-        <f>(D25)</f>
-        <v/>
+      <c r="B26" s="40" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C26" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D26" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2002</t>
+        </is>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F26" s="41">
-        <f>(F25)</f>
-        <v/>
+      <c r="F26" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2002</t>
+        </is>
       </c>
       <c r="G26" s="36" t="n">
         <v>0</v>
@@ -5606,99 +6025,112 @@
       <c r="O26" s="34" t="n"/>
       <c r="P26" s="34" t="n"/>
       <c r="Q26" s="35" t="n"/>
+      <c r="R26" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="27" s="2">
       <c r="A27" s="15" t="n"/>
       <c r="B27" s="40" t="n">
         <v>2003</v>
       </c>
-      <c r="C27" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C27" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D27" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2003"</t>
-        </is>
-      </c>
-      <c r="E27" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2003</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F27" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2003"</t>
+          <t>07/19/2003</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H27" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I27" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J27" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K27" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2003"</t>
-        </is>
-      </c>
-      <c r="L27" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2003</t>
+        </is>
+      </c>
+      <c r="L27" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M27" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2003"</t>
-        </is>
-      </c>
-      <c r="N27" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2003</t>
+        </is>
+      </c>
+      <c r="N27" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O27" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P27" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P27" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q27" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R27" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="28" s="2">
       <c r="A28" s="15" t="n"/>
-      <c r="B28" s="40">
-        <f>IF($B$4="None","",$B$27)</f>
-        <v/>
-      </c>
-      <c r="C28" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D28" s="38">
-        <f>(D27)</f>
-        <v/>
+      <c r="B28" s="40" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C28" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D28" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2003</t>
+        </is>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F28" s="41">
-        <f>(F27)</f>
-        <v/>
+      <c r="F28" s="41" t="inlineStr">
+        <is>
+          <t>04/08/2003</t>
+        </is>
       </c>
       <c r="G28" s="36" t="n">
         <v>0</v>
@@ -5713,35 +6145,42 @@
       <c r="O28" s="40" t="n"/>
       <c r="P28" s="40" t="n"/>
       <c r="Q28" s="10" t="n"/>
+      <c r="R28" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="29" s="2">
       <c r="A29" s="15" t="n"/>
       <c r="B29" s="40" t="n">
         <v>2004</v>
       </c>
-      <c r="C29" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C29" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D29" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2004"</t>
-        </is>
-      </c>
-      <c r="E29" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2004</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F29" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2004"</t>
+          <t>07/19/2004</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>73</v>
       </c>
-      <c r="H29" s="10" t="b">
-        <v>1</v>
+      <c r="H29" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I29" s="40" t="n">
         <v>0</v>
@@ -5753,59 +6192,65 @@
       </c>
       <c r="K29" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2004"</t>
-        </is>
-      </c>
-      <c r="L29" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2004</t>
+        </is>
+      </c>
+      <c r="L29" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M29" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2004"</t>
-        </is>
-      </c>
-      <c r="N29" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2004</t>
+        </is>
+      </c>
+      <c r="N29" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O29" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P29" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P29" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q29" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R29" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="30" s="2">
       <c r="A30" s="15" t="n"/>
-      <c r="B30" s="40">
-        <f>IF($B$4="None","",$B$29)</f>
-        <v/>
-      </c>
-      <c r="C30" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D30" s="38">
-        <f>(D29)</f>
-        <v/>
+      <c r="B30" s="40" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C30" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D30" s="38" t="inlineStr">
+        <is>
+          <t>10/07/2004</t>
+        </is>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F30" s="41">
-        <f>(F29)</f>
-        <v/>
+      <c r="F30" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2004</t>
+        </is>
       </c>
       <c r="G30" s="36" t="n">
         <v>0</v>
@@ -5822,99 +6267,112 @@
       <c r="O30" s="40" t="n"/>
       <c r="P30" s="40" t="n"/>
       <c r="Q30" s="10" t="n"/>
+      <c r="R30" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="31" s="2">
       <c r="A31" s="15" t="n"/>
       <c r="B31" s="40" t="n">
         <v>2005</v>
       </c>
-      <c r="C31" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C31" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D31" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2005"</t>
-        </is>
-      </c>
-      <c r="E31" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2005</t>
+        </is>
+      </c>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F31" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2005"</t>
+          <t>07/19/2005</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H31" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I31" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J31" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K31" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2005"</t>
-        </is>
-      </c>
-      <c r="L31" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2005</t>
+        </is>
+      </c>
+      <c r="L31" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M31" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2005"</t>
-        </is>
-      </c>
-      <c r="N31" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2005</t>
+        </is>
+      </c>
+      <c r="N31" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O31" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P31" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P31" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q31" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R31" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" s="2">
       <c r="A32" s="15" t="n"/>
-      <c r="B32" s="40">
-        <f>IF($B$4="None","",$B$31)</f>
-        <v/>
-      </c>
-      <c r="C32" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D32" s="38">
-        <f>(D31)</f>
-        <v/>
+      <c r="B32" s="40" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C32" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D32" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2005</t>
+        </is>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F32" s="41">
-        <f>(F31)</f>
-        <v/>
+      <c r="F32" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2005</t>
+        </is>
       </c>
       <c r="G32" s="36" t="n">
         <v>0</v>
@@ -5929,35 +6387,42 @@
       <c r="O32" s="40" t="n"/>
       <c r="P32" s="40" t="n"/>
       <c r="Q32" s="10" t="n"/>
+      <c r="R32" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="33" s="2">
       <c r="A33" s="15" t="n"/>
       <c r="B33" s="40" t="n">
         <v>2006</v>
       </c>
-      <c r="C33" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C33" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D33" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2006"</t>
-        </is>
-      </c>
-      <c r="E33" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2006</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F33" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2006"</t>
+          <t>07/19/2006</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>58</v>
       </c>
-      <c r="H33" s="10" t="b">
-        <v>1</v>
+      <c r="H33" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I33" s="40" t="n">
         <v>0</v>
@@ -5969,59 +6434,65 @@
       </c>
       <c r="K33" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2006"</t>
-        </is>
-      </c>
-      <c r="L33" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2006</t>
+        </is>
+      </c>
+      <c r="L33" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M33" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2006"</t>
-        </is>
-      </c>
-      <c r="N33" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2006</t>
+        </is>
+      </c>
+      <c r="N33" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O33" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P33" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P33" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q33" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R33" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" s="2">
       <c r="A34" s="15" t="n"/>
-      <c r="B34" s="40">
-        <f>IF($B$4="None","",$B$33)</f>
-        <v/>
-      </c>
-      <c r="C34" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D34" s="38">
-        <f>(D33)</f>
-        <v/>
+      <c r="B34" s="40" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C34" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D34" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2006</t>
+        </is>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F34" s="41">
-        <f>(F33)</f>
-        <v/>
+      <c r="F34" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2006</t>
+        </is>
       </c>
       <c r="G34" s="36" t="n">
         <v>0</v>
@@ -6038,99 +6509,112 @@
       <c r="O34" s="40" t="n"/>
       <c r="P34" s="40" t="n"/>
       <c r="Q34" s="10" t="n"/>
+      <c r="R34" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="35" s="2">
       <c r="A35" s="15" t="n"/>
       <c r="B35" s="40" t="n">
         <v>2007</v>
       </c>
-      <c r="C35" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C35" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D35" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2007"</t>
-        </is>
-      </c>
-      <c r="E35" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2007</t>
+        </is>
+      </c>
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F35" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2007"</t>
+          <t>07/19/2007</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H35" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I35" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J35" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K35" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2007"</t>
-        </is>
-      </c>
-      <c r="L35" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2007</t>
+        </is>
+      </c>
+      <c r="L35" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M35" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2007"</t>
-        </is>
-      </c>
-      <c r="N35" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2007</t>
+        </is>
+      </c>
+      <c r="N35" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O35" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P35" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P35" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q35" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R35" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="36" s="2">
       <c r="A36" s="15" t="n"/>
-      <c r="B36" s="40">
-        <f>IF($B$4="None","",$B$35)</f>
-        <v/>
-      </c>
-      <c r="C36" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D36" s="38">
-        <f>(D35)</f>
-        <v/>
+      <c r="B36" s="40" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C36" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D36" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2007</t>
+        </is>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F36" s="41">
-        <f>(F35)</f>
-        <v/>
+      <c r="F36" s="41" t="inlineStr">
+        <is>
+          <t>04/08/2007</t>
+        </is>
       </c>
       <c r="G36" s="36" t="n">
         <v>0</v>
@@ -6145,35 +6629,42 @@
       <c r="O36" s="40" t="n"/>
       <c r="P36" s="40" t="n"/>
       <c r="Q36" s="10" t="n"/>
+      <c r="R36" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="37" s="2">
       <c r="A37" s="15" t="n"/>
       <c r="B37" s="40" t="n">
         <v>2008</v>
       </c>
-      <c r="C37" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C37" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D37" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2008"</t>
-        </is>
-      </c>
-      <c r="E37" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2008</t>
+        </is>
+      </c>
+      <c r="E37" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F37" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2008"</t>
+          <t>07/19/2008</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>50</v>
       </c>
-      <c r="H37" s="10" t="b">
-        <v>1</v>
+      <c r="H37" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I37" s="40" t="n">
         <v>0</v>
@@ -6185,59 +6676,65 @@
       </c>
       <c r="K37" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2008"</t>
-        </is>
-      </c>
-      <c r="L37" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2008</t>
+        </is>
+      </c>
+      <c r="L37" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M37" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2008"</t>
-        </is>
-      </c>
-      <c r="N37" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2008</t>
+        </is>
+      </c>
+      <c r="N37" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O37" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P37" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P37" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q37" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R37" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="38" s="2">
       <c r="A38" s="15" t="n"/>
-      <c r="B38" s="40">
-        <f>IF($B$4="None","",$B$37)</f>
-        <v/>
-      </c>
-      <c r="C38" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D38" s="38">
-        <f>(D37)</f>
-        <v/>
+      <c r="B38" s="40" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C38" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D38" s="38" t="inlineStr">
+        <is>
+          <t>10/07/2008</t>
+        </is>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F38" s="41">
-        <f>(F37)</f>
-        <v/>
+      <c r="F38" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2008</t>
+        </is>
       </c>
       <c r="G38" s="36" t="n">
         <v>0</v>
@@ -6254,99 +6751,112 @@
       <c r="O38" s="40" t="n"/>
       <c r="P38" s="40" t="n"/>
       <c r="Q38" s="10" t="n"/>
+      <c r="R38" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="39" s="2">
       <c r="A39" s="15" t="n"/>
       <c r="B39" s="40" t="n">
         <v>2009</v>
       </c>
-      <c r="C39" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C39" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D39" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2009"</t>
-        </is>
-      </c>
-      <c r="E39" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2009</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F39" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2009"</t>
+          <t>07/19/2009</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H39" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I39" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J39" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K39" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2009"</t>
-        </is>
-      </c>
-      <c r="L39" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2009</t>
+        </is>
+      </c>
+      <c r="L39" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M39" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2009"</t>
-        </is>
-      </c>
-      <c r="N39" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2009</t>
+        </is>
+      </c>
+      <c r="N39" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O39" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P39" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P39" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q39" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R39" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="40" s="2">
       <c r="A40" s="15" t="n"/>
-      <c r="B40" s="40">
-        <f>IF($B$4="None","",$B$39)</f>
-        <v/>
-      </c>
-      <c r="C40" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D40" s="38">
-        <f>(D39)</f>
-        <v/>
+      <c r="B40" s="40" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C40" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D40" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2009</t>
+        </is>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F40" s="41">
-        <f>(F39)</f>
-        <v/>
+      <c r="F40" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2009</t>
+        </is>
       </c>
       <c r="G40" s="36" t="n">
         <v>0</v>
@@ -6361,35 +6871,42 @@
       <c r="O40" s="40" t="n"/>
       <c r="P40" s="40" t="n"/>
       <c r="Q40" s="10" t="n"/>
+      <c r="R40" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="41" s="2">
       <c r="A41" s="15" t="n"/>
       <c r="B41" s="40" t="n">
         <v>2010</v>
       </c>
-      <c r="C41" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C41" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D41" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2010"</t>
-        </is>
-      </c>
-      <c r="E41" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2010</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F41" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2010"</t>
+          <t>07/19/2010</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>74</v>
       </c>
-      <c r="H41" s="10" t="b">
-        <v>1</v>
+      <c r="H41" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I41" s="40" t="n">
         <v>0</v>
@@ -6401,59 +6918,65 @@
       </c>
       <c r="K41" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2010"</t>
-        </is>
-      </c>
-      <c r="L41" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2010</t>
+        </is>
+      </c>
+      <c r="L41" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M41" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2010"</t>
-        </is>
-      </c>
-      <c r="N41" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2010</t>
+        </is>
+      </c>
+      <c r="N41" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O41" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P41" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P41" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q41" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R41" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="42" s="2">
       <c r="A42" s="15" t="n"/>
-      <c r="B42" s="40">
-        <f>IF($B$4="None","",$B$41)</f>
-        <v/>
-      </c>
-      <c r="C42" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D42" s="38">
-        <f>(D41)</f>
-        <v/>
+      <c r="B42" s="40" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C42" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D42" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2010</t>
+        </is>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F42" s="41">
-        <f>(F41)</f>
-        <v/>
+      <c r="F42" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2010</t>
+        </is>
       </c>
       <c r="G42" s="36" t="n">
         <v>0</v>
@@ -6470,99 +6993,112 @@
       <c r="O42" s="40" t="n"/>
       <c r="P42" s="40" t="n"/>
       <c r="Q42" s="10" t="n"/>
+      <c r="R42" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="43" s="2">
       <c r="A43" s="15" t="n"/>
       <c r="B43" s="40" t="n">
         <v>2011</v>
       </c>
-      <c r="C43" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C43" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D43" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2011"</t>
-        </is>
-      </c>
-      <c r="E43" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2011</t>
+        </is>
+      </c>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F43" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2011"</t>
+          <t>07/19/2011</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H43" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I43" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J43" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K43" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2011"</t>
-        </is>
-      </c>
-      <c r="L43" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2011</t>
+        </is>
+      </c>
+      <c r="L43" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M43" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2011"</t>
-        </is>
-      </c>
-      <c r="N43" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2011</t>
+        </is>
+      </c>
+      <c r="N43" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O43" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P43" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P43" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q43" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R43" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" s="2">
       <c r="A44" s="15" t="n"/>
-      <c r="B44" s="40">
-        <f>IF($B$4="None","",$B$43)</f>
-        <v/>
-      </c>
-      <c r="C44" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D44" s="38">
-        <f>(D43)</f>
-        <v/>
+      <c r="B44" s="40" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C44" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D44" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2011</t>
+        </is>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F44" s="41">
-        <f>(F43)</f>
-        <v/>
+      <c r="F44" s="41" t="inlineStr">
+        <is>
+          <t>04/08/2011</t>
+        </is>
       </c>
       <c r="G44" s="36" t="n">
         <v>0</v>
@@ -6577,35 +7113,42 @@
       <c r="O44" s="40" t="n"/>
       <c r="P44" s="40" t="n"/>
       <c r="Q44" s="10" t="n"/>
+      <c r="R44" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="45" s="2">
       <c r="A45" s="15" t="n"/>
       <c r="B45" s="40" t="n">
         <v>2012</v>
       </c>
-      <c r="C45" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C45" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D45" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2012"</t>
-        </is>
-      </c>
-      <c r="E45" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2012</t>
+        </is>
+      </c>
+      <c r="E45" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F45" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2012"</t>
+          <t>07/19/2012</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>72</v>
       </c>
-      <c r="H45" s="10" t="b">
-        <v>1</v>
+      <c r="H45" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I45" s="40" t="n">
         <v>0</v>
@@ -6617,59 +7160,65 @@
       </c>
       <c r="K45" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2012"</t>
-        </is>
-      </c>
-      <c r="L45" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2012</t>
+        </is>
+      </c>
+      <c r="L45" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M45" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2012"</t>
-        </is>
-      </c>
-      <c r="N45" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2012</t>
+        </is>
+      </c>
+      <c r="N45" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O45" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P45" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P45" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q45" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R45" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="46" s="2">
       <c r="A46" s="15" t="n"/>
-      <c r="B46" s="40">
-        <f>IF($B$4="None","",$B$45)</f>
-        <v/>
-      </c>
-      <c r="C46" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D46" s="38">
-        <f>(D45)</f>
-        <v/>
+      <c r="B46" s="40" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C46" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D46" s="38" t="inlineStr">
+        <is>
+          <t>10/07/2012</t>
+        </is>
       </c>
       <c r="E46" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F46" s="41">
-        <f>(F45)</f>
-        <v/>
+      <c r="F46" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2012</t>
+        </is>
       </c>
       <c r="G46" s="36" t="n">
         <v>0</v>
@@ -6686,99 +7235,112 @@
       <c r="O46" s="40" t="n"/>
       <c r="P46" s="40" t="n"/>
       <c r="Q46" s="10" t="n"/>
+      <c r="R46" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="47" s="2">
       <c r="A47" s="15" t="n"/>
       <c r="B47" s="40" t="n">
         <v>2013</v>
       </c>
-      <c r="C47" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C47" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D47" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2013"</t>
-        </is>
-      </c>
-      <c r="E47" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2013</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F47" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2013"</t>
+          <t>07/19/2013</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H47" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I47" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J47" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J47" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K47" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2013"</t>
-        </is>
-      </c>
-      <c r="L47" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2013</t>
+        </is>
+      </c>
+      <c r="L47" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M47" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2013"</t>
-        </is>
-      </c>
-      <c r="N47" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2013</t>
+        </is>
+      </c>
+      <c r="N47" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O47" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P47" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P47" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q47" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R47" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="48" s="2">
       <c r="A48" s="15" t="n"/>
-      <c r="B48" s="40">
-        <f>IF($B$4="None","",$B$47)</f>
-        <v/>
-      </c>
-      <c r="C48" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D48" s="38">
-        <f>(D47)</f>
-        <v/>
+      <c r="B48" s="40" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C48" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D48" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2013</t>
+        </is>
       </c>
       <c r="E48" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F48" s="41">
-        <f>(F47)</f>
-        <v/>
+      <c r="F48" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2013</t>
+        </is>
       </c>
       <c r="G48" s="36" t="n">
         <v>0</v>
@@ -6793,35 +7355,42 @@
       <c r="O48" s="40" t="n"/>
       <c r="P48" s="40" t="n"/>
       <c r="Q48" s="10" t="n"/>
+      <c r="R48" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="49" s="2">
       <c r="A49" s="15" t="n"/>
       <c r="B49" s="40" t="n">
         <v>2014</v>
       </c>
-      <c r="C49" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C49" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D49" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2014"</t>
-        </is>
-      </c>
-      <c r="E49" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2014</t>
+        </is>
+      </c>
+      <c r="E49" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F49" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2014"</t>
+          <t>07/19/2014</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>50</v>
       </c>
-      <c r="H49" s="10" t="b">
-        <v>1</v>
+      <c r="H49" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I49" s="40" t="n">
         <v>0</v>
@@ -6833,59 +7402,65 @@
       </c>
       <c r="K49" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2014"</t>
-        </is>
-      </c>
-      <c r="L49" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2014</t>
+        </is>
+      </c>
+      <c r="L49" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M49" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2014"</t>
-        </is>
-      </c>
-      <c r="N49" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2014</t>
+        </is>
+      </c>
+      <c r="N49" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O49" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P49" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P49" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q49" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R49" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="50" s="2">
       <c r="A50" s="15" t="n"/>
-      <c r="B50" s="40">
-        <f>IF($B$4="None","",$B$49)</f>
-        <v/>
-      </c>
-      <c r="C50" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D50" s="38">
-        <f>(D49)</f>
-        <v/>
+      <c r="B50" s="40" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C50" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D50" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2014</t>
+        </is>
       </c>
       <c r="E50" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F50" s="41">
-        <f>(F49)</f>
-        <v/>
+      <c r="F50" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2014</t>
+        </is>
       </c>
       <c r="G50" s="36" t="n">
         <v>0</v>
@@ -6902,99 +7477,112 @@
       <c r="O50" s="40" t="n"/>
       <c r="P50" s="40" t="n"/>
       <c r="Q50" s="10" t="n"/>
+      <c r="R50" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="51" s="2">
       <c r="A51" s="15" t="n"/>
       <c r="B51" s="40" t="n">
         <v>2015</v>
       </c>
-      <c r="C51" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C51" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D51" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2015"</t>
-        </is>
-      </c>
-      <c r="E51" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2015</t>
+        </is>
+      </c>
+      <c r="E51" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F51" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2015"</t>
+          <t>07/19/2015</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H51" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I51" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J51" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K51" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2015"</t>
-        </is>
-      </c>
-      <c r="L51" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2015</t>
+        </is>
+      </c>
+      <c r="L51" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M51" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2015"</t>
-        </is>
-      </c>
-      <c r="N51" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2015</t>
+        </is>
+      </c>
+      <c r="N51" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O51" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P51" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P51" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q51" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R51" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="52" s="2">
       <c r="A52" s="15" t="n"/>
-      <c r="B52" s="40">
-        <f>IF($B$4="None","",$B$51)</f>
-        <v/>
-      </c>
-      <c r="C52" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D52" s="38">
-        <f>(D51)</f>
-        <v/>
+      <c r="B52" s="40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C52" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D52" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2015</t>
+        </is>
       </c>
       <c r="E52" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F52" s="41">
-        <f>(F51)</f>
-        <v/>
+      <c r="F52" s="41" t="inlineStr">
+        <is>
+          <t>04/08/2015</t>
+        </is>
       </c>
       <c r="G52" s="36" t="n">
         <v>0</v>
@@ -7009,35 +7597,42 @@
       <c r="O52" s="40" t="n"/>
       <c r="P52" s="40" t="n"/>
       <c r="Q52" s="10" t="n"/>
+      <c r="R52" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="53" s="2">
       <c r="A53" s="15" t="n"/>
       <c r="B53" s="40" t="n">
         <v>2016</v>
       </c>
-      <c r="C53" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C53" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D53" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2016"</t>
-        </is>
-      </c>
-      <c r="E53" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2016</t>
+        </is>
+      </c>
+      <c r="E53" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F53" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2016"</t>
+          <t>07/19/2016</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>67</v>
       </c>
-      <c r="H53" s="10" t="b">
-        <v>1</v>
+      <c r="H53" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I53" s="40" t="n">
         <v>0</v>
@@ -7049,59 +7644,65 @@
       </c>
       <c r="K53" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2016"</t>
-        </is>
-      </c>
-      <c r="L53" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2016</t>
+        </is>
+      </c>
+      <c r="L53" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M53" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2016"</t>
-        </is>
-      </c>
-      <c r="N53" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2016</t>
+        </is>
+      </c>
+      <c r="N53" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O53" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P53" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P53" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q53" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R53" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="54" s="2">
       <c r="A54" s="15" t="n"/>
-      <c r="B54" s="40">
-        <f>IF($B$4="None","",$B$53)</f>
-        <v/>
-      </c>
-      <c r="C54" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D54" s="38">
-        <f>(D53)</f>
-        <v/>
+      <c r="B54" s="40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C54" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D54" s="38" t="inlineStr">
+        <is>
+          <t>10/07/2016</t>
+        </is>
       </c>
       <c r="E54" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F54" s="41">
-        <f>(F53)</f>
-        <v/>
+      <c r="F54" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2016</t>
+        </is>
       </c>
       <c r="G54" s="36" t="n">
         <v>0</v>
@@ -7118,99 +7719,112 @@
       <c r="O54" s="40" t="n"/>
       <c r="P54" s="40" t="n"/>
       <c r="Q54" s="10" t="n"/>
+      <c r="R54" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="55" s="2">
       <c r="A55" s="15" t="n"/>
       <c r="B55" s="40" t="n">
         <v>2017</v>
       </c>
-      <c r="C55" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="C55" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D55" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2017"</t>
-        </is>
-      </c>
-      <c r="E55" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2017</t>
+        </is>
+      </c>
+      <c r="E55" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F55" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2017"</t>
+          <t>07/19/2017</t>
         </is>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
-      <c r="H55" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H55" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I55" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J55" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K55" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2017"</t>
-        </is>
-      </c>
-      <c r="L55" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2017</t>
+        </is>
+      </c>
+      <c r="L55" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M55" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2017"</t>
-        </is>
-      </c>
-      <c r="N55" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2017</t>
+        </is>
+      </c>
+      <c r="N55" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O55" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P55" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P55" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q55" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R55" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="56" s="2">
       <c r="A56" s="15" t="n"/>
-      <c r="B56" s="40">
-        <f>IF($B$4="None","",$B$55)</f>
-        <v/>
-      </c>
-      <c r="C56" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D56" s="38">
-        <f>(D55)</f>
-        <v/>
+      <c r="B56" s="40" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D56" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2017</t>
+        </is>
       </c>
       <c r="E56" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F56" s="41">
-        <f>(F55)</f>
-        <v/>
+      <c r="F56" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2017</t>
+        </is>
       </c>
       <c r="G56" s="36" t="n">
         <v>0</v>
@@ -7227,35 +7841,42 @@
       <c r="O56" s="40" t="n"/>
       <c r="P56" s="40" t="n"/>
       <c r="Q56" s="10" t="n"/>
+      <c r="R56" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="57" s="2">
       <c r="A57" s="15" t="n"/>
       <c r="B57" s="40" t="n">
         <v>2018</v>
       </c>
-      <c r="C57" s="40">
-        <f>$B$3</f>
-        <v/>
+      <c r="C57" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D57" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2018"</t>
-        </is>
-      </c>
-      <c r="E57" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2018</t>
+        </is>
+      </c>
+      <c r="E57" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F57" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2018"</t>
+          <t>07/19/2018</t>
         </is>
       </c>
       <c r="G57" t="n">
         <v>53</v>
       </c>
-      <c r="H57" s="10" t="b">
-        <v>1</v>
+      <c r="H57" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I57" s="40" t="n">
         <v>0</v>
@@ -7267,60 +7888,65 @@
       </c>
       <c r="K57" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2018"</t>
-        </is>
-      </c>
-      <c r="L57" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2018</t>
+        </is>
+      </c>
+      <c r="L57" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M57" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2018"</t>
-        </is>
-      </c>
-      <c r="N57" s="40">
-        <f>$B$8</f>
-        <v/>
+          <t>04/12/2018</t>
+        </is>
+      </c>
+      <c r="N57" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O57" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P57" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P57" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q57" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R57" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" s="2">
       <c r="A58" s="15" t="n"/>
-      <c r="B58" s="40" t="inlineStr">
-        <is>
-          <t>Irrigation (Pre 1980s)</t>
-        </is>
-      </c>
-      <c r="C58" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D58" s="38">
-        <f>(D57)</f>
-        <v/>
+      <c r="B58" s="40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C58" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D58" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2018</t>
+        </is>
       </c>
       <c r="E58" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F58" s="41">
-        <f>(F57)</f>
-        <v/>
+      <c r="F58" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2018</t>
+        </is>
       </c>
       <c r="G58" s="36" t="n">
         <v>0</v>
@@ -7339,101 +7965,112 @@
       <c r="O58" s="40" t="n"/>
       <c r="P58" s="40" t="n"/>
       <c r="Q58" s="10" t="n"/>
+      <c r="R58" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="59" s="2">
       <c r="A59" s="15" t="n"/>
-      <c r="B59" s="40" t="inlineStr">
-        <is>
-          <t>Irrigated: Annual Crops in Rotation</t>
-        </is>
-      </c>
-      <c r="C59" s="40">
-        <f>IF($B$5="Y","Fallow",$B$3)</f>
-        <v/>
+      <c r="B59" s="40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C59" s="40" t="inlineStr">
+        <is>
+          <t>Alfalfa</t>
+        </is>
       </c>
       <c r="D59" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2019"</t>
-        </is>
-      </c>
-      <c r="E59" s="10">
-        <f>IF($B$3="ALFALFA","Y",IF($B$3="CLOVER","Y",IF($B$3="Grass","Y",IF($B$3="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2019</t>
+        </is>
+      </c>
+      <c r="E59" s="10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="F59" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2019"</t>
+          <t>07/19/2019</t>
         </is>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="30">
-        <f>IF($B$5="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H59" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I59" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J59" s="40">
-        <f>IF($B$5="Y","No Tillage",$B$6)</f>
-        <v/>
+      <c r="J59" s="40" t="inlineStr">
+        <is>
+          <t>Reduced Tillage</t>
+        </is>
       </c>
       <c r="K59" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2019"</t>
-        </is>
-      </c>
-      <c r="L59" s="40">
-        <f>$B$7</f>
-        <v/>
+          <t>04/08/2019</t>
+        </is>
+      </c>
+      <c r="L59" s="40" t="inlineStr">
+        <is>
+          <t>Ammonium Nitrate</t>
+        </is>
       </c>
       <c r="M59" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2019"</t>
-        </is>
-      </c>
-      <c r="N59" s="40">
-        <f>IF($B$5="Y",0,$B$7)</f>
-        <v/>
+          <t>04/12/2019</t>
+        </is>
+      </c>
+      <c r="N59" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O59" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P59" s="40">
-        <f>$B$9</f>
-        <v/>
+      <c r="P59" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q59" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R59" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="60" s="2">
       <c r="A60" s="15" t="n"/>
-      <c r="B60" s="40">
-        <f>IF($B$4="None","",$B$59)</f>
-        <v/>
-      </c>
-      <c r="C60" s="40">
-        <f>IF($B$4="None","",$B$4)</f>
-        <v/>
-      </c>
-      <c r="D60" s="38">
-        <f>(D59)</f>
-        <v/>
+      <c r="B60" s="40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D60" s="38" t="inlineStr">
+        <is>
+          <t>10/06/2019</t>
+        </is>
       </c>
       <c r="E60" s="38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F60" s="41">
-        <f>(F59)</f>
-        <v/>
+      <c r="F60" s="41" t="inlineStr">
+        <is>
+          <t>04/07/2019</t>
+        </is>
       </c>
       <c r="G60" s="36" t="n">
         <v>0</v>
@@ -7452,6 +8089,9 @@
       <c r="O60" s="40" t="n"/>
       <c r="P60" s="40" t="n"/>
       <c r="Q60" s="10" t="n"/>
+      <c r="R60" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="61" s="2"/>
     <row customHeight="1" ht="25" r="62" s="2">
@@ -7479,7 +8119,7 @@
       </c>
       <c r="B63" s="24" t="inlineStr">
         <is>
-          <t>71_21999</t>
+          <t>barley - no till</t>
         </is>
       </c>
     </row>
@@ -7487,7 +8127,7 @@
       <c r="A64" s="17" t="n"/>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
@@ -7563,15 +8203,18 @@
       <c r="Q64" s="21" t="inlineStr">
         <is>
           <t>did_you_burn_residue</t>
+        </is>
+      </c>
+      <c r="R64" s="21" t="inlineStr">
+        <is>
+          <t>crop_number</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="65" s="2">
       <c r="A65" s="26" t="n"/>
-      <c r="B65" s="40" t="inlineStr">
-        <is>
-          <t>1528146</t>
-        </is>
+      <c r="B65" s="40" t="n">
+        <v>2020</v>
       </c>
       <c r="C65" s="40" t="inlineStr">
         <is>
@@ -7580,87 +8223,96 @@
       </c>
       <c r="D65" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2020"</t>
-        </is>
-      </c>
-      <c r="E65" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2020</t>
+        </is>
+      </c>
+      <c r="E65" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F65" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2020"</t>
+          <t>07/19/2020</t>
         </is>
       </c>
       <c r="G65" t="n">
         <v>60</v>
       </c>
-      <c r="H65" s="10" t="b">
-        <v>1</v>
+      <c r="H65" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I65" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J65" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J65" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K65" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2020"</t>
-        </is>
-      </c>
-      <c r="L65" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2020</t>
+        </is>
+      </c>
+      <c r="L65" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M65" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2020"</t>
-        </is>
-      </c>
-      <c r="N65" s="40">
-        <f>$B$16</f>
-        <v/>
+          <t>04/12/2020</t>
+        </is>
+      </c>
+      <c r="N65" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O65" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P65" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P65" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q65" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R65" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="66" s="2">
       <c r="A66" s="26" t="n"/>
-      <c r="B66" s="40" t="inlineStr">
-        <is>
-          <t>POLYGON ((-117.883261484 45.2784270998,-117.883190052 45.2784001221,-117.883104725 45.278360391,-117.883032809 45.2783079208,-117.882910768 45.2781883944,-117.882855783 45.2781263689,-117.882564427 45.2777361068,-117.882454625 45.2774524634,-117.882431826 45.277383564,-117.882419588 45.2773138267,-117.88242797 45.2772409044,-117.882470048 45.2770218016,-117.882516651 45.2768791411,-117.882577503 45.2767383257,-117.882663838 45.2766062268,-117.882785375 45.2764037201,-117.882833989 45.2763388437,-117.883054266 45.2760890631,-117.883250402 45.2761147118,-117.883543601 45.2761872989,-117.8837446 45.2762221673,-117.884154139 45.2762655862,-117.884359664 45.2762788296,-117.884462426 45.2762779912,-117.884565524 45.2762709503,-117.884872637 45.2762404406,-117.885067766 45.27619149,-117.885569676 45.276099792,-117.885668414 45.2760785017,-117.88585047 45.2760099377,-117.886042414 45.2759546171,-117.8863103 45.2758466582,-117.886590256 45.2757534521,-117.886955875 45.2756158211,-117.887037347 45.2755713963,-117.887268483 45.2754259225,-117.88732075 45.2755875289,-117.887697049 45.2755281462,-117.887781638 45.275789684,-117.888534237 45.2756709143,-117.888449645 45.2754093772,-117.888825942 45.2753499908,-117.888910536 45.2756115276,-117.889286834 45.2755521397,-117.88937143 45.2758136761,-117.889747729 45.2757542866,-117.889916929 45.2762773583,-117.890669531 45.2761585743,-117.890838741 45.2766816442,-117.890462437 45.2767410375,-117.890800863 45.2777871775,-117.890424552 45.277846571,-117.890593768 45.2783696411,-117.887959548 45.2787853657,-117.887874951 45.2785238283,-117.886745994 45.2787019767,-117.886661403 45.2784404381,-117.885908765 45.2785591969,-117.885824177 45.2782976575,-117.8843189 45.278535159,-117.88423432 45.2782736182,-117.883261484 45.2784270998))</t>
-        </is>
-      </c>
-      <c r="C66" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D66" s="40">
-        <f>(D65)</f>
-        <v/>
+      <c r="B66" s="40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D66" s="40" t="inlineStr">
+        <is>
+          <t>10/07/2020</t>
+        </is>
       </c>
       <c r="E66" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F66" s="40">
-        <f>(F65)</f>
-        <v/>
+      <c r="F66" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2020</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -7677,102 +8329,112 @@
       <c r="O66" s="40" t="n"/>
       <c r="P66" s="40" t="n"/>
       <c r="Q66" s="10" t="n"/>
+      <c r="R66" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="67" s="2">
       <c r="A67" s="26" t="n"/>
-      <c r="B67" s="40" t="inlineStr">
-        <is>
-          <t>43.9892997742</t>
-        </is>
-      </c>
-      <c r="C67" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="B67" s="40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C67" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D67" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2021"</t>
-        </is>
-      </c>
-      <c r="E67" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2021</t>
+        </is>
+      </c>
+      <c r="E67" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F67" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2021"</t>
+          <t>07/19/2021</t>
         </is>
       </c>
       <c r="G67" t="n">
         <v>60</v>
       </c>
-      <c r="H67" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H67" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I67" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J67" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J67" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K67" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2021"</t>
-        </is>
-      </c>
-      <c r="L67" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2021</t>
+        </is>
+      </c>
+      <c r="L67" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M67" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2021"</t>
-        </is>
-      </c>
-      <c r="N67" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+          <t>04/12/2021</t>
+        </is>
+      </c>
+      <c r="N67" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O67" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P67" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P67" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q67" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R67" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="68" s="2">
       <c r="A68" s="26" t="n"/>
-      <c r="B68" s="40" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="C68" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D68" s="40">
-        <f>(D67)</f>
-        <v/>
+      <c r="B68" s="40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D68" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2021</t>
+        </is>
       </c>
       <c r="E68" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F68" s="40">
-        <f>(F67)</f>
-        <v/>
+      <c r="F68" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2021</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -7787,6 +8449,9 @@
       <c r="O68" s="40" t="n"/>
       <c r="P68" s="40" t="n"/>
       <c r="Q68" s="10" t="n"/>
+      <c r="R68" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="69" s="2">
       <c r="A69" s="26" t="n"/>
@@ -7800,86 +8465,96 @@
       </c>
       <c r="D69" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2022"</t>
-        </is>
-      </c>
-      <c r="E69" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2022</t>
+        </is>
+      </c>
+      <c r="E69" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F69" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2022"</t>
+          <t>07/19/2022</t>
         </is>
       </c>
       <c r="G69" t="n">
         <v>60</v>
       </c>
-      <c r="H69" s="10" t="b">
-        <v>1</v>
+      <c r="H69" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I69" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J69" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J69" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K69" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2022"</t>
-        </is>
-      </c>
-      <c r="L69" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2022</t>
+        </is>
+      </c>
+      <c r="L69" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M69" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2022"</t>
-        </is>
-      </c>
-      <c r="N69" s="40">
-        <f>$B$16</f>
-        <v/>
+          <t>04/12/2022</t>
+        </is>
+      </c>
+      <c r="N69" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O69" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P69" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P69" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q69" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R69" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="70" s="2">
       <c r="A70" s="26" t="n"/>
-      <c r="B70" s="40">
-        <f>(B69)</f>
-        <v/>
-      </c>
-      <c r="C70" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D70" s="40">
-        <f>(D69)</f>
-        <v/>
+      <c r="B70" s="40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C70" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D70" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2022</t>
+        </is>
       </c>
       <c r="E70" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F70" s="40">
-        <f>(F69)</f>
-        <v/>
+      <c r="F70" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2022</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -7896,99 +8571,112 @@
       <c r="O70" s="40" t="n"/>
       <c r="P70" s="40" t="n"/>
       <c r="Q70" s="10" t="n"/>
+      <c r="R70" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="71" s="2">
       <c r="A71" s="26" t="n"/>
       <c r="B71" s="40" t="n">
         <v>2023</v>
       </c>
-      <c r="C71" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C71" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D71" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2023"</t>
-        </is>
-      </c>
-      <c r="E71" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2023</t>
+        </is>
+      </c>
+      <c r="E71" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F71" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2023"</t>
+          <t>07/19/2023</t>
         </is>
       </c>
       <c r="G71" t="n">
         <v>60</v>
       </c>
-      <c r="H71" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H71" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I71" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J71" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J71" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K71" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2023"</t>
-        </is>
-      </c>
-      <c r="L71" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2023</t>
+        </is>
+      </c>
+      <c r="L71" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M71" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2023"</t>
-        </is>
-      </c>
-      <c r="N71" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+          <t>04/12/2023</t>
+        </is>
+      </c>
+      <c r="N71" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O71" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P71" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P71" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q71" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R71" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="72" s="2">
       <c r="A72" s="26" t="n"/>
-      <c r="B72" s="40">
-        <f>(B71)</f>
-        <v/>
-      </c>
-      <c r="C72" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D72" s="40">
-        <f>(D71)</f>
-        <v/>
+      <c r="B72" s="40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C72" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D72" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
       </c>
       <c r="E72" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F72" s="40">
-        <f>(F71)</f>
-        <v/>
+      <c r="F72" s="40" t="inlineStr">
+        <is>
+          <t>04/08/2023</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -8003,6 +8691,9 @@
       <c r="O72" s="40" t="n"/>
       <c r="P72" s="40" t="n"/>
       <c r="Q72" s="10" t="n"/>
+      <c r="R72" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="73" s="2">
       <c r="A73" s="26" t="n"/>
@@ -8016,86 +8707,96 @@
       </c>
       <c r="D73" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2024"</t>
-        </is>
-      </c>
-      <c r="E73" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F73" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2024"</t>
+          <t>07/19/2024</t>
         </is>
       </c>
       <c r="G73" t="n">
         <v>60</v>
       </c>
-      <c r="H73" s="10" t="b">
-        <v>1</v>
+      <c r="H73" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I73" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J73" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J73" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K73" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2024"</t>
-        </is>
-      </c>
-      <c r="L73" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2024</t>
+        </is>
+      </c>
+      <c r="L73" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M73" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2024"</t>
-        </is>
-      </c>
-      <c r="N73" s="40">
-        <f>$B$16</f>
-        <v/>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="N73" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O73" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P73" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P73" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q73" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R73" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="74" s="2">
       <c r="A74" s="26" t="n"/>
-      <c r="B74" s="40">
-        <f>(B73)</f>
-        <v/>
-      </c>
-      <c r="C74" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D74" s="40">
-        <f>(D73)</f>
-        <v/>
+      <c r="B74" s="40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C74" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D74" s="40" t="inlineStr">
+        <is>
+          <t>10/07/2024</t>
+        </is>
       </c>
       <c r="E74" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F74" s="40">
-        <f>(F73)</f>
-        <v/>
+      <c r="F74" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -8112,99 +8813,112 @@
       <c r="O74" s="40" t="n"/>
       <c r="P74" s="40" t="n"/>
       <c r="Q74" s="10" t="n"/>
+      <c r="R74" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="75" s="2">
       <c r="A75" s="26" t="n"/>
       <c r="B75" s="40" t="n">
         <v>2025</v>
       </c>
-      <c r="C75" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C75" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D75" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2025"</t>
-        </is>
-      </c>
-      <c r="E75" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="E75" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F75" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2025"</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="G75" t="n">
         <v>60</v>
       </c>
-      <c r="H75" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H75" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I75" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J75" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J75" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K75" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2025"</t>
-        </is>
-      </c>
-      <c r="L75" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2025</t>
+        </is>
+      </c>
+      <c r="L75" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M75" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2025"</t>
-        </is>
-      </c>
-      <c r="N75" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="N75" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O75" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P75" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P75" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q75" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R75" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="76" s="2">
       <c r="A76" s="26" t="n"/>
-      <c r="B76" s="40">
-        <f>(B75)</f>
-        <v/>
-      </c>
-      <c r="C76" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D76" s="40">
-        <f>(D75)</f>
-        <v/>
+      <c r="B76" s="40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D76" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
       </c>
       <c r="E76" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F76" s="40">
-        <f>(F75)</f>
-        <v/>
+      <c r="F76" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -8219,6 +8933,9 @@
       <c r="O76" s="40" t="n"/>
       <c r="P76" s="40" t="n"/>
       <c r="Q76" s="10" t="n"/>
+      <c r="R76" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="77" s="2">
       <c r="A77" s="26" t="n"/>
@@ -8232,86 +8949,96 @@
       </c>
       <c r="D77" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2026"</t>
-        </is>
-      </c>
-      <c r="E77" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2026</t>
+        </is>
+      </c>
+      <c r="E77" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F77" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2026"</t>
+          <t>07/19/2026</t>
         </is>
       </c>
       <c r="G77" t="n">
         <v>60</v>
       </c>
-      <c r="H77" s="10" t="b">
-        <v>1</v>
+      <c r="H77" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I77" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J77" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J77" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K77" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2026"</t>
-        </is>
-      </c>
-      <c r="L77" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2026</t>
+        </is>
+      </c>
+      <c r="L77" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M77" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2026"</t>
-        </is>
-      </c>
-      <c r="N77" s="40">
-        <f>$B$16</f>
-        <v/>
+          <t>04/12/2026</t>
+        </is>
+      </c>
+      <c r="N77" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O77" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P77" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P77" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q77" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R77" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="78" s="2">
       <c r="A78" s="26" t="n"/>
-      <c r="B78" s="40">
-        <f>(B77)</f>
-        <v/>
-      </c>
-      <c r="C78" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D78" s="40">
-        <f>(D77)</f>
-        <v/>
+      <c r="B78" s="40" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C78" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D78" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2026</t>
+        </is>
       </c>
       <c r="E78" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F78" s="40">
-        <f>(F77)</f>
-        <v/>
+      <c r="F78" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2026</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -8328,99 +9055,112 @@
       <c r="O78" s="40" t="n"/>
       <c r="P78" s="40" t="n"/>
       <c r="Q78" s="10" t="n"/>
+      <c r="R78" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="79" s="2">
       <c r="A79" s="26" t="n"/>
       <c r="B79" s="40" t="n">
         <v>2027</v>
       </c>
-      <c r="C79" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C79" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D79" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2027"</t>
-        </is>
-      </c>
-      <c r="E79" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2027</t>
+        </is>
+      </c>
+      <c r="E79" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F79" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2027"</t>
+          <t>07/19/2027</t>
         </is>
       </c>
       <c r="G79" t="n">
         <v>60</v>
       </c>
-      <c r="H79" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H79" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I79" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J79" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J79" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K79" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2027"</t>
-        </is>
-      </c>
-      <c r="L79" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2027</t>
+        </is>
+      </c>
+      <c r="L79" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M79" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2027"</t>
-        </is>
-      </c>
-      <c r="N79" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+          <t>04/12/2027</t>
+        </is>
+      </c>
+      <c r="N79" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O79" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P79" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P79" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q79" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R79" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="80" s="2">
       <c r="A80" s="26" t="n"/>
-      <c r="B80" s="40">
-        <f>(B79)</f>
-        <v/>
-      </c>
-      <c r="C80" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D80" s="40">
-        <f>(D79)</f>
-        <v/>
+      <c r="B80" s="40" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C80" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D80" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2027</t>
+        </is>
       </c>
       <c r="E80" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F80" s="40">
-        <f>(F79)</f>
-        <v/>
+      <c r="F80" s="40" t="inlineStr">
+        <is>
+          <t>04/08/2027</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -8435,6 +9175,9 @@
       <c r="O80" s="40" t="n"/>
       <c r="P80" s="40" t="n"/>
       <c r="Q80" s="10" t="n"/>
+      <c r="R80" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="81" s="2">
       <c r="A81" s="26" t="n"/>
@@ -8448,86 +9191,96 @@
       </c>
       <c r="D81" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2028"</t>
-        </is>
-      </c>
-      <c r="E81" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2028</t>
+        </is>
+      </c>
+      <c r="E81" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F81" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2028"</t>
+          <t>07/19/2028</t>
         </is>
       </c>
       <c r="G81" t="n">
         <v>60</v>
       </c>
-      <c r="H81" s="10" t="b">
-        <v>1</v>
+      <c r="H81" s="10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I81" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J81" s="40">
-        <f>$B$14</f>
-        <v/>
+      <c r="J81" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K81" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2028"</t>
-        </is>
-      </c>
-      <c r="L81" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2028</t>
+        </is>
+      </c>
+      <c r="L81" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M81" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2028"</t>
-        </is>
-      </c>
-      <c r="N81" s="40">
-        <f>$B$16</f>
-        <v/>
+          <t>04/12/2028</t>
+        </is>
+      </c>
+      <c r="N81" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O81" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P81" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P81" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q81" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R81" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="82" s="2">
       <c r="A82" s="26" t="n"/>
-      <c r="B82" s="40">
-        <f>(B81)</f>
-        <v/>
-      </c>
-      <c r="C82" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D82" s="40">
-        <f>(D81)</f>
-        <v/>
+      <c r="B82" s="40" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C82" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D82" s="40" t="inlineStr">
+        <is>
+          <t>10/07/2028</t>
+        </is>
       </c>
       <c r="E82" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F82" s="40">
-        <f>(F81)</f>
-        <v/>
+      <c r="F82" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2028</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -8544,99 +9297,112 @@
       <c r="O82" s="40" t="n"/>
       <c r="P82" s="40" t="n"/>
       <c r="Q82" s="10" t="n"/>
+      <c r="R82" s="34" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="83" s="2">
       <c r="A83" s="26" t="n"/>
       <c r="B83" s="40" t="n">
         <v>2029</v>
       </c>
-      <c r="C83" s="40">
-        <f>IF($B$13="Y","Fallow",$B$11)</f>
-        <v/>
+      <c r="C83" s="40" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
       </c>
       <c r="D83" s="40" t="inlineStr">
         <is>
-          <t>"01/01/2029"</t>
-        </is>
-      </c>
-      <c r="E83" s="10">
-        <f>IF($B$11="ALFALFA","Y",IF($B$11="CLOVER","Y",IF($B$11="Grass","Y",IF($B$11="Switchgrass","Y","N"))))</f>
-        <v/>
+          <t>04/12/2029</t>
+        </is>
+      </c>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="F83" s="40" t="inlineStr">
         <is>
-          <t>"10/01/2029"</t>
+          <t>07/19/2029</t>
         </is>
       </c>
       <c r="G83" t="n">
         <v>60</v>
       </c>
-      <c r="H83" s="30">
-        <f>IF($B$13="Y","FALSE","TRUE")</f>
-        <v/>
+      <c r="H83" s="30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
       <c r="I83" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="J83" s="40">
-        <f>IF($B$13="Y","No Tillage",$B$14)</f>
-        <v/>
+      <c r="J83" s="40" t="inlineStr">
+        <is>
+          <t>No Tillage</t>
+        </is>
       </c>
       <c r="K83" s="40" t="inlineStr">
         <is>
-          <t>"05/01/2029"</t>
-        </is>
-      </c>
-      <c r="L83" s="40">
-        <f>$B$15</f>
-        <v/>
+          <t>04/08/2029</t>
+        </is>
+      </c>
+      <c r="L83" s="40" t="inlineStr">
+        <is>
+          <t>Compost</t>
+        </is>
       </c>
       <c r="M83" s="40" t="inlineStr">
         <is>
-          <t>"05/09/2029"</t>
-        </is>
-      </c>
-      <c r="N83" s="40">
-        <f>IF($B$13="Y",0,$B$16)</f>
-        <v/>
+          <t>04/12/2029</t>
+        </is>
+      </c>
+      <c r="N83" s="40" t="n">
+        <v>100</v>
       </c>
       <c r="O83" s="40" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="P83" s="40">
-        <f>$B$17</f>
-        <v/>
+      <c r="P83" s="40" t="inlineStr">
+        <is>
+          <t>Surface Broadcast</t>
+        </is>
       </c>
       <c r="Q83" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
+      </c>
+      <c r="R83" s="40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" outlineLevel="1" r="84" s="2">
       <c r="A84" s="26" t="n"/>
-      <c r="B84" s="40">
-        <f>(B83)</f>
-        <v/>
-      </c>
-      <c r="C84" s="40">
-        <f>IF($B$12="None","",$B$12)</f>
-        <v/>
-      </c>
-      <c r="D84" s="40">
-        <f>(D83)</f>
-        <v/>
+      <c r="B84" s="40" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C84" s="40" t="inlineStr">
+        <is>
+          <t>Clover</t>
+        </is>
+      </c>
+      <c r="D84" s="40" t="inlineStr">
+        <is>
+          <t>10/06/2029</t>
+        </is>
       </c>
       <c r="E84" s="10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F84" s="40">
-        <f>(F83)</f>
-        <v/>
+      <c r="F84" s="40" t="inlineStr">
+        <is>
+          <t>04/07/2029</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -8651,7 +9417,11 @@
       <c r="O84" s="40" t="n"/>
       <c r="P84" s="40" t="n"/>
       <c r="Q84" s="10" t="n"/>
-    </row>
+      <c r="R84" s="34" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="85"/>
     <row customHeight="1" ht="25" r="86" s="2">
       <c r="A86" s="37" t="n"/>
     </row>
@@ -8687,7 +9457,7 @@
       </c>
       <c r="B90" s="40" t="inlineStr">
         <is>
-          <t>Non-Irrigated: Continuous Hay</t>
+          <t>Irrigated: Annual Crops in Rotation</t>
         </is>
       </c>
     </row>
@@ -8735,7 +9505,7 @@
       </c>
       <c r="B94" s="40" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>71_21999</t>
         </is>
       </c>
     </row>
@@ -8747,7 +9517,7 @@
       </c>
       <c r="B95" s="40" t="inlineStr">
         <is>
-          <t>"1"</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -8757,6 +9527,11 @@
           <t>id</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1528146</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="97" s="2">
       <c r="A97" s="14" t="inlineStr">
@@ -8764,6 +9539,11 @@
           <t>GEOM</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>POLYGON ((-117.883261484 45.2784270998,-117.883190052 45.2784001221,-117.883104725 45.278360391,-117.883032809 45.2783079208,-117.882910768 45.2781883944,-117.882855783 45.2781263689,-117.882564427 45.2777361068,-117.882454625 45.2774524634,-117.882431826 45.277383564,-117.882419588 45.2773138267,-117.88242797 45.2772409044,-117.882470048 45.2770218016,-117.882516651 45.2768791411,-117.882577503 45.2767383257,-117.882663838 45.2766062268,-117.882785375 45.2764037201,-117.882833989 45.2763388437,-117.883054266 45.2760890631,-117.883250402 45.2761147118,-117.883543601 45.2761872989,-117.8837446 45.2762221673,-117.884154139 45.2762655862,-117.884359664 45.2762788296,-117.884462426 45.2762779912,-117.884565524 45.2762709503,-117.884872637 45.2762404406,-117.885067766 45.27619149,-117.885569676 45.276099792,-117.885668414 45.2760785017,-117.88585047 45.2760099377,-117.886042414 45.2759546171,-117.8863103 45.2758466582,-117.886590256 45.2757534521,-117.886955875 45.2756158211,-117.887037347 45.2755713963,-117.887268483 45.2754259225,-117.88732075 45.2755875289,-117.887697049 45.2755281462,-117.887781638 45.275789684,-117.888534237 45.2756709143,-117.888449645 45.2754093772,-117.888825942 45.2753499908,-117.888910536 45.2756115276,-117.889286834 45.2755521397,-117.88937143 45.2758136761,-117.889747729 45.2757542866,-117.889916929 45.2762773583,-117.890669531 45.2761585743,-117.890838741 45.2766816442,-117.890462437 45.2767410375,-117.890800863 45.2777871775,-117.890424552 45.277846571,-117.890593768 45.2783696411,-117.887959548 45.2787853657,-117.887874951 45.2785238283,-117.886745994 45.2787019767,-117.886661403 45.2784404381,-117.885908765 45.2785591969,-117.885824177 45.2782976575,-117.8843189 45.278535159,-117.88423432 45.2782736182,-117.883261484 45.2784270998))</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="98" s="2">
       <c r="A98" s="14" t="inlineStr">
@@ -8771,11 +9551,21 @@
           <t>AREA</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>43.9892997742</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="99" s="2">
       <c r="A99" s="14" t="inlineStr">
         <is>
           <t>SRID</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4326</t>
         </is>
       </c>
     </row>

--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -5757,7 +5757,7 @@
       </c>
       <c r="F22" s="41" t="inlineStr">
         <is>
-          <t>04/07/2000</t>
+          <t>04/07/2001</t>
         </is>
       </c>
       <c r="G22" s="36" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F24" s="41" t="inlineStr">
         <is>
-          <t>04/07/2001</t>
+          <t>04/07/2002</t>
         </is>
       </c>
       <c r="G24" s="36" t="n">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F26" s="41" t="inlineStr">
         <is>
-          <t>04/07/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="G26" s="36" t="n">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="F28" s="41" t="inlineStr">
         <is>
-          <t>04/08/2003</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="G28" s="36" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="F30" s="41" t="inlineStr">
         <is>
-          <t>04/07/2004</t>
+          <t>04/07/2005</t>
         </is>
       </c>
       <c r="G30" s="36" t="n">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F32" s="41" t="inlineStr">
         <is>
-          <t>04/07/2005</t>
+          <t>04/07/2006</t>
         </is>
       </c>
       <c r="G32" s="36" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="F34" s="41" t="inlineStr">
         <is>
-          <t>04/07/2006</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="G34" s="36" t="n">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="F36" s="41" t="inlineStr">
         <is>
-          <t>04/08/2007</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="G36" s="36" t="n">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F38" s="41" t="inlineStr">
         <is>
-          <t>04/07/2008</t>
+          <t>04/07/2009</t>
         </is>
       </c>
       <c r="G38" s="36" t="n">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="F40" s="41" t="inlineStr">
         <is>
-          <t>04/07/2009</t>
+          <t>04/07/2010</t>
         </is>
       </c>
       <c r="G40" s="36" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="F42" s="41" t="inlineStr">
         <is>
-          <t>04/07/2010</t>
+          <t>04/07/2011</t>
         </is>
       </c>
       <c r="G42" s="36" t="n">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="F44" s="41" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>04/08/2012</t>
         </is>
       </c>
       <c r="G44" s="36" t="n">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="F46" s="41" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>04/07/2013</t>
         </is>
       </c>
       <c r="G46" s="36" t="n">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="F48" s="41" t="inlineStr">
         <is>
-          <t>04/07/2013</t>
+          <t>04/07/2014</t>
         </is>
       </c>
       <c r="G48" s="36" t="n">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="F50" s="41" t="inlineStr">
         <is>
-          <t>04/07/2014</t>
+          <t>04/07/2015</t>
         </is>
       </c>
       <c r="G50" s="36" t="n">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F52" s="41" t="inlineStr">
         <is>
-          <t>04/08/2015</t>
+          <t>04/08/2016</t>
         </is>
       </c>
       <c r="G52" s="36" t="n">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F54" s="41" t="inlineStr">
         <is>
-          <t>04/07/2016</t>
+          <t>04/07/2017</t>
         </is>
       </c>
       <c r="G54" s="36" t="n">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="F56" s="41" t="inlineStr">
         <is>
-          <t>04/07/2017</t>
+          <t>04/07/2018</t>
         </is>
       </c>
       <c r="G56" s="36" t="n">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="F58" s="41" t="inlineStr">
         <is>
-          <t>04/07/2018</t>
+          <t>04/07/2019</t>
         </is>
       </c>
       <c r="G58" s="36" t="n">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="F60" s="41" t="inlineStr">
         <is>
-          <t>04/07/2019</t>
+          <t>04/07/2020</t>
         </is>
       </c>
       <c r="G60" s="36" t="n">
